--- a/November/Others/Price List Update_01.11.19.xlsx
+++ b/November/Others/Price List Update_01.11.19.xlsx
@@ -652,7 +652,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -667,19 +667,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -788,7 +776,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
@@ -885,43 +873,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="25" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -964,40 +919,82 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="25" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1318,7 +1315,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -2418,7 +2415,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -2864,7 +2861,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -2935,7 +2932,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -3009,7 +3006,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -3080,7 +3077,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -3397,7 +3394,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -4497,7 +4494,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -4943,7 +4940,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -5014,7 +5011,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -5088,7 +5085,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -5159,7 +5156,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -5476,7 +5473,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -6576,7 +6573,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -7022,7 +7019,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -7093,7 +7090,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -7167,7 +7164,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -7238,7 +7235,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -7794,48 +7791,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="35.25" customHeight="1">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="52" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="53" t="s">
         <v>80</v>
       </c>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="54" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="65"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
       <c r="E3" s="20"/>
-      <c r="F3" s="65" t="s">
+      <c r="F3" s="54" t="s">
         <v>82</v>
       </c>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="65"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
     </row>
     <row r="4" spans="1:10" s="6" customFormat="1" ht="18" customHeight="1">
       <c r="A4" s="5" t="s">
@@ -8936,38 +8933,38 @@
       <c r="J44" s="27"/>
     </row>
     <row r="45" spans="1:14">
-      <c r="A45" s="59" t="s">
+      <c r="A45" s="48" t="s">
         <v>86</v>
       </c>
-      <c r="B45" s="60"/>
-      <c r="C45" s="60"/>
-      <c r="D45" s="53" t="s">
+      <c r="B45" s="49"/>
+      <c r="C45" s="49"/>
+      <c r="D45" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="E45" s="53"/>
-      <c r="F45" s="53"/>
-      <c r="G45" s="53"/>
-      <c r="H45" s="55" t="s">
+      <c r="E45" s="42"/>
+      <c r="F45" s="42"/>
+      <c r="G45" s="42"/>
+      <c r="H45" s="44" t="s">
         <v>83</v>
       </c>
-      <c r="I45" s="55"/>
-      <c r="J45" s="56"/>
+      <c r="I45" s="44"/>
+      <c r="J45" s="45"/>
       <c r="K45" s="21"/>
       <c r="L45" s="21"/>
       <c r="M45" s="21"/>
       <c r="N45" s="21"/>
     </row>
     <row r="46" spans="1:14">
-      <c r="A46" s="61"/>
-      <c r="B46" s="62"/>
-      <c r="C46" s="62"/>
-      <c r="D46" s="54"/>
-      <c r="E46" s="54"/>
-      <c r="F46" s="54"/>
-      <c r="G46" s="54"/>
-      <c r="H46" s="57"/>
-      <c r="I46" s="57"/>
-      <c r="J46" s="58"/>
+      <c r="A46" s="50"/>
+      <c r="B46" s="51"/>
+      <c r="C46" s="51"/>
+      <c r="D46" s="43"/>
+      <c r="E46" s="43"/>
+      <c r="F46" s="43"/>
+      <c r="G46" s="43"/>
+      <c r="H46" s="46"/>
+      <c r="I46" s="46"/>
+      <c r="J46" s="47"/>
       <c r="K46" s="23"/>
       <c r="L46" s="22"/>
       <c r="M46" s="22"/>
@@ -9040,45 +9037,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="29" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="55" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
     </row>
     <row r="2" spans="1:9" ht="17.25">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="53" t="s">
         <v>80</v>
       </c>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
     </row>
     <row r="3" spans="1:9" ht="17.25">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="54" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="65"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
       <c r="E3" s="20"/>
-      <c r="F3" s="65" t="s">
+      <c r="F3" s="54" t="s">
         <v>95</v>
       </c>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
     </row>
     <row r="4" spans="1:9" ht="18" customHeight="1">
       <c r="A4" s="30" t="s">
@@ -10051,32 +10048,32 @@
       <c r="I45" s="28"/>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="67" t="s">
+      <c r="A46" s="56" t="s">
         <v>92</v>
       </c>
-      <c r="B46" s="68"/>
-      <c r="C46" s="68" t="s">
+      <c r="B46" s="57"/>
+      <c r="C46" s="57" t="s">
         <v>94</v>
       </c>
-      <c r="D46" s="68"/>
-      <c r="E46" s="68"/>
-      <c r="F46" s="68"/>
-      <c r="G46" s="68" t="s">
+      <c r="D46" s="57"/>
+      <c r="E46" s="57"/>
+      <c r="F46" s="57"/>
+      <c r="G46" s="57" t="s">
         <v>93</v>
       </c>
-      <c r="H46" s="68"/>
-      <c r="I46" s="71"/>
+      <c r="H46" s="57"/>
+      <c r="I46" s="60"/>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="69"/>
-      <c r="B47" s="70"/>
-      <c r="C47" s="70"/>
-      <c r="D47" s="70"/>
-      <c r="E47" s="70"/>
-      <c r="F47" s="70"/>
-      <c r="G47" s="70"/>
-      <c r="H47" s="70"/>
-      <c r="I47" s="72"/>
+      <c r="A47" s="58"/>
+      <c r="B47" s="59"/>
+      <c r="C47" s="59"/>
+      <c r="D47" s="59"/>
+      <c r="E47" s="59"/>
+      <c r="F47" s="59"/>
+      <c r="G47" s="59"/>
+      <c r="H47" s="59"/>
+      <c r="I47" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -10102,8 +10099,8 @@
   </sheetPr>
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="N42" sqref="N42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I52" sqref="A1:K53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10122,1433 +10119,1437 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="27" customHeight="1">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="62" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
     </row>
     <row r="2" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="63" t="s">
         <v>117</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="73"/>
-      <c r="J2" s="73"/>
-      <c r="K2" s="73"/>
-    </row>
-    <row r="3" spans="1:11" s="49" customFormat="1" ht="18.75">
-      <c r="A3" s="74" t="s">
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+    </row>
+    <row r="3" spans="1:11" s="41" customFormat="1" ht="18.75">
+      <c r="A3" s="64" t="s">
         <v>96</v>
       </c>
-      <c r="B3" s="74"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="74" t="s">
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="64" t="s">
         <v>125</v>
       </c>
-      <c r="H3" s="74"/>
-      <c r="I3" s="74"/>
-      <c r="J3" s="74"/>
-      <c r="K3" s="74"/>
-    </row>
-    <row r="4" spans="1:11" s="48" customFormat="1" ht="24" customHeight="1">
-      <c r="A4" s="45" t="s">
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64"/>
+      <c r="K3" s="64"/>
+    </row>
+    <row r="4" spans="1:11" s="40" customFormat="1" ht="24" customHeight="1">
+      <c r="A4" s="66" t="s">
         <v>97</v>
       </c>
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="45" t="s">
+      <c r="C4" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="46" t="s">
+      <c r="D4" s="67" t="s">
         <v>98</v>
       </c>
-      <c r="E4" s="46" t="s">
+      <c r="E4" s="67" t="s">
         <v>99</v>
       </c>
-      <c r="F4" s="47"/>
-      <c r="G4" s="45" t="s">
+      <c r="F4" s="68"/>
+      <c r="G4" s="66" t="s">
         <v>97</v>
       </c>
-      <c r="H4" s="45" t="s">
+      <c r="H4" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="45" t="s">
+      <c r="I4" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="J4" s="46" t="s">
+      <c r="J4" s="67" t="s">
         <v>98</v>
       </c>
-      <c r="K4" s="46" t="s">
+      <c r="K4" s="67" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75">
-      <c r="A5" s="41" t="s">
+      <c r="A5" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="42">
+      <c r="B5" s="70">
         <v>800</v>
       </c>
-      <c r="C5" s="42">
+      <c r="C5" s="70">
         <v>875</v>
       </c>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42">
+      <c r="D5" s="70"/>
+      <c r="E5" s="70">
         <v>10</v>
       </c>
-      <c r="F5" s="40"/>
-      <c r="G5" s="41" t="s">
+      <c r="F5" s="71"/>
+      <c r="G5" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="43">
+      <c r="H5" s="72">
         <v>1010</v>
       </c>
-      <c r="I5" s="43">
+      <c r="I5" s="72">
         <v>1090</v>
       </c>
-      <c r="J5" s="42"/>
-      <c r="K5" s="42">
+      <c r="J5" s="70"/>
+      <c r="K5" s="70">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15.75">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="69" t="s">
         <v>72</v>
       </c>
-      <c r="B6" s="42">
+      <c r="B6" s="70">
         <v>780</v>
       </c>
-      <c r="C6" s="42">
+      <c r="C6" s="70">
         <v>840</v>
       </c>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42">
+      <c r="D6" s="70"/>
+      <c r="E6" s="70">
         <v>10</v>
       </c>
-      <c r="F6" s="40"/>
-      <c r="G6" s="41" t="s">
+      <c r="F6" s="71"/>
+      <c r="G6" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="H6" s="43">
+      <c r="H6" s="72">
         <v>1040</v>
       </c>
-      <c r="I6" s="43">
+      <c r="I6" s="72">
         <v>1130</v>
       </c>
-      <c r="J6" s="42"/>
-      <c r="K6" s="42">
+      <c r="J6" s="70"/>
+      <c r="K6" s="70">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15.75">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="69" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="42">
+      <c r="B7" s="70">
         <v>810</v>
       </c>
-      <c r="C7" s="42">
+      <c r="C7" s="70">
         <v>880</v>
       </c>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42">
+      <c r="D7" s="70"/>
+      <c r="E7" s="70">
         <v>10</v>
       </c>
-      <c r="F7" s="40"/>
-      <c r="G7" s="44" t="s">
+      <c r="F7" s="71"/>
+      <c r="G7" s="73" t="s">
         <v>88</v>
       </c>
-      <c r="H7" s="43">
+      <c r="H7" s="72">
         <v>970</v>
       </c>
-      <c r="I7" s="43">
+      <c r="I7" s="72">
         <v>1050</v>
       </c>
-      <c r="J7" s="42"/>
-      <c r="K7" s="42">
+      <c r="J7" s="70"/>
+      <c r="K7" s="70">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15.75">
-      <c r="A8" s="41" t="s">
+      <c r="A8" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="42">
+      <c r="B8" s="70">
         <v>800</v>
       </c>
-      <c r="C8" s="42">
+      <c r="C8" s="70">
         <v>870</v>
       </c>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42">
+      <c r="D8" s="70"/>
+      <c r="E8" s="70">
         <v>10</v>
       </c>
-      <c r="F8" s="40"/>
-      <c r="G8" s="41" t="s">
+      <c r="F8" s="71"/>
+      <c r="G8" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="H8" s="43">
+      <c r="H8" s="72">
         <v>1100</v>
       </c>
-      <c r="I8" s="43">
+      <c r="I8" s="72">
         <v>1199</v>
       </c>
-      <c r="J8" s="42"/>
-      <c r="K8" s="42">
+      <c r="J8" s="70"/>
+      <c r="K8" s="70">
         <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15.75">
-      <c r="A9" s="41" t="s">
+      <c r="A9" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="42">
+      <c r="B9" s="70">
         <v>790</v>
       </c>
-      <c r="C9" s="42">
+      <c r="C9" s="70">
         <v>860</v>
       </c>
-      <c r="D9" s="42">
+      <c r="D9" s="70">
         <v>30</v>
       </c>
-      <c r="E9" s="42">
+      <c r="E9" s="70">
         <v>10</v>
       </c>
-      <c r="F9" s="40"/>
-      <c r="G9" s="41" t="s">
+      <c r="F9" s="71"/>
+      <c r="G9" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="H9" s="43">
+      <c r="H9" s="72">
         <v>1050</v>
       </c>
-      <c r="I9" s="43">
+      <c r="I9" s="72">
         <v>1130</v>
       </c>
-      <c r="J9" s="42"/>
-      <c r="K9" s="42">
+      <c r="J9" s="70"/>
+      <c r="K9" s="70">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15.75">
-      <c r="A10" s="41" t="s">
+      <c r="A10" s="69" t="s">
         <v>69</v>
       </c>
-      <c r="B10" s="42">
+      <c r="B10" s="70">
         <v>800</v>
       </c>
-      <c r="C10" s="42">
+      <c r="C10" s="70">
         <v>860</v>
       </c>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42">
+      <c r="D10" s="70"/>
+      <c r="E10" s="70">
         <v>10</v>
       </c>
-      <c r="F10" s="40"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="43"/>
-      <c r="I10" s="43"/>
-      <c r="J10" s="42"/>
-      <c r="K10" s="42"/>
+      <c r="F10" s="71"/>
+      <c r="G10" s="69"/>
+      <c r="H10" s="72"/>
+      <c r="I10" s="72"/>
+      <c r="J10" s="70"/>
+      <c r="K10" s="70"/>
     </row>
     <row r="11" spans="1:11" ht="15.75">
-      <c r="A11" s="41" t="s">
+      <c r="A11" s="69" t="s">
         <v>76</v>
       </c>
-      <c r="B11" s="42">
+      <c r="B11" s="70">
         <v>790</v>
       </c>
-      <c r="C11" s="42">
+      <c r="C11" s="70">
         <v>850</v>
       </c>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42">
+      <c r="D11" s="70"/>
+      <c r="E11" s="70">
         <v>10</v>
       </c>
-      <c r="F11" s="40"/>
-      <c r="G11" s="41" t="s">
+      <c r="F11" s="71"/>
+      <c r="G11" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="H11" s="43">
+      <c r="H11" s="72">
         <v>1100</v>
       </c>
-      <c r="I11" s="43">
+      <c r="I11" s="72">
         <v>1190</v>
       </c>
-      <c r="J11" s="42"/>
-      <c r="K11" s="42">
+      <c r="J11" s="70"/>
+      <c r="K11" s="70">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15.75">
-      <c r="A12" s="41" t="s">
+      <c r="A12" s="69" t="s">
         <v>121</v>
       </c>
-      <c r="B12" s="42">
+      <c r="B12" s="70">
         <v>800</v>
       </c>
-      <c r="C12" s="42">
+      <c r="C12" s="70">
         <v>860</v>
       </c>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42">
+      <c r="D12" s="70"/>
+      <c r="E12" s="70">
         <v>10</v>
       </c>
-      <c r="F12" s="40"/>
-      <c r="G12" s="41" t="s">
+      <c r="F12" s="71"/>
+      <c r="G12" s="69" t="s">
         <v>85</v>
       </c>
-      <c r="H12" s="43">
+      <c r="H12" s="72">
         <v>1330</v>
       </c>
-      <c r="I12" s="43">
+      <c r="I12" s="72">
         <v>1450</v>
       </c>
-      <c r="J12" s="42"/>
-      <c r="K12" s="42">
+      <c r="J12" s="70"/>
+      <c r="K12" s="70">
         <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15.75">
-      <c r="A13" s="41" t="s">
+      <c r="A13" s="69" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="42">
+      <c r="B13" s="70">
         <v>915</v>
       </c>
-      <c r="C13" s="42">
+      <c r="C13" s="70">
         <v>990</v>
       </c>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42">
+      <c r="D13" s="70"/>
+      <c r="E13" s="70">
         <v>0</v>
       </c>
-      <c r="F13" s="40"/>
-      <c r="G13" s="41" t="s">
+      <c r="F13" s="71"/>
+      <c r="G13" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="43">
+      <c r="H13" s="72">
         <v>1200</v>
       </c>
-      <c r="I13" s="43">
+      <c r="I13" s="72">
         <v>1299</v>
       </c>
-      <c r="J13" s="42"/>
-      <c r="K13" s="42">
+      <c r="J13" s="70"/>
+      <c r="K13" s="70">
         <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="15.75">
-      <c r="A14" s="41" t="s">
+      <c r="A14" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="42">
+      <c r="B14" s="70">
         <v>890</v>
       </c>
-      <c r="C14" s="42">
+      <c r="C14" s="70">
         <v>970</v>
       </c>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42">
+      <c r="D14" s="70"/>
+      <c r="E14" s="70">
         <v>10</v>
       </c>
-      <c r="F14" s="40"/>
-      <c r="G14" s="41" t="s">
+      <c r="F14" s="71"/>
+      <c r="G14" s="69" t="s">
         <v>78</v>
       </c>
-      <c r="H14" s="43">
+      <c r="H14" s="72">
         <v>1100</v>
       </c>
-      <c r="I14" s="43">
+      <c r="I14" s="72">
         <v>1190</v>
       </c>
-      <c r="J14" s="42"/>
-      <c r="K14" s="42">
+      <c r="J14" s="70"/>
+      <c r="K14" s="70">
         <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15.75">
-      <c r="A15" s="41" t="s">
+      <c r="A15" s="69" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="42">
+      <c r="B15" s="70">
         <v>920</v>
       </c>
-      <c r="C15" s="42">
+      <c r="C15" s="70">
         <v>999</v>
       </c>
-      <c r="D15" s="42"/>
-      <c r="E15" s="42">
+      <c r="D15" s="70"/>
+      <c r="E15" s="70">
         <v>0</v>
       </c>
-      <c r="F15" s="40"/>
-      <c r="G15" s="41" t="s">
+      <c r="F15" s="71"/>
+      <c r="G15" s="69" t="s">
         <v>89</v>
       </c>
-      <c r="H15" s="43">
+      <c r="H15" s="72">
         <v>1190</v>
       </c>
-      <c r="I15" s="43">
+      <c r="I15" s="72">
         <v>1290</v>
       </c>
-      <c r="J15" s="42"/>
-      <c r="K15" s="42">
+      <c r="J15" s="70"/>
+      <c r="K15" s="70">
         <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="15.75">
-      <c r="A16" s="41" t="s">
+      <c r="A16" s="69" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="42">
+      <c r="B16" s="70">
         <v>880</v>
       </c>
-      <c r="C16" s="42">
+      <c r="C16" s="70">
         <v>950</v>
       </c>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42">
+      <c r="D16" s="70"/>
+      <c r="E16" s="70">
         <v>20</v>
       </c>
-      <c r="F16" s="40"/>
-      <c r="G16" s="41" t="s">
+      <c r="F16" s="71"/>
+      <c r="G16" s="69" t="s">
         <v>100</v>
       </c>
-      <c r="H16" s="43">
+      <c r="H16" s="72">
         <v>12240</v>
       </c>
-      <c r="I16" s="43">
+      <c r="I16" s="72">
         <v>12990</v>
       </c>
-      <c r="J16" s="42"/>
-      <c r="K16" s="42">
+      <c r="J16" s="70"/>
+      <c r="K16" s="70">
         <v>350</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="15.75">
-      <c r="A17" s="41" t="s">
+      <c r="A17" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="B17" s="42">
+      <c r="B17" s="70">
         <v>845</v>
       </c>
-      <c r="C17" s="42">
+      <c r="C17" s="70">
         <v>910</v>
       </c>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42">
+      <c r="D17" s="70"/>
+      <c r="E17" s="70">
         <v>10</v>
       </c>
-      <c r="F17" s="40"/>
-      <c r="G17" s="41" t="s">
+      <c r="F17" s="71"/>
+      <c r="G17" s="69" t="s">
         <v>101</v>
       </c>
-      <c r="H17" s="43">
+      <c r="H17" s="72">
         <v>12090</v>
       </c>
-      <c r="I17" s="43">
+      <c r="I17" s="72">
         <v>12990</v>
       </c>
-      <c r="J17" s="42"/>
-      <c r="K17" s="42">
+      <c r="J17" s="70"/>
+      <c r="K17" s="70">
         <v>200</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="15.75">
-      <c r="A18" s="41" t="s">
+      <c r="A18" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="42">
+      <c r="B18" s="70">
         <v>1000</v>
       </c>
-      <c r="C18" s="42">
+      <c r="C18" s="70">
         <v>1090</v>
       </c>
-      <c r="D18" s="42"/>
-      <c r="E18" s="42">
+      <c r="D18" s="70"/>
+      <c r="E18" s="70">
         <v>0</v>
       </c>
-      <c r="F18" s="40"/>
-      <c r="G18" s="41" t="s">
+      <c r="F18" s="71"/>
+      <c r="G18" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="H18" s="43">
+      <c r="H18" s="72">
         <v>12490</v>
       </c>
-      <c r="I18" s="43">
+      <c r="I18" s="72">
         <v>13490</v>
       </c>
-      <c r="J18" s="42"/>
-      <c r="K18" s="42">
+      <c r="J18" s="70"/>
+      <c r="K18" s="70">
         <v>300</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="15.75">
-      <c r="A19" s="41" t="s">
+      <c r="A19" s="69" t="s">
         <v>48</v>
       </c>
-      <c r="B19" s="42">
+      <c r="B19" s="70">
         <v>995</v>
       </c>
-      <c r="C19" s="42">
+      <c r="C19" s="70">
         <v>1075</v>
       </c>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42">
+      <c r="D19" s="70"/>
+      <c r="E19" s="70">
         <v>0</v>
       </c>
-      <c r="F19" s="40"/>
-      <c r="G19" s="41" t="s">
+      <c r="F19" s="71"/>
+      <c r="G19" s="69" t="s">
         <v>58</v>
       </c>
-      <c r="H19" s="43">
+      <c r="H19" s="72">
         <v>5750</v>
       </c>
-      <c r="I19" s="43">
+      <c r="I19" s="72">
         <v>6190</v>
       </c>
-      <c r="J19" s="42"/>
-      <c r="K19" s="42">
+      <c r="J19" s="70"/>
+      <c r="K19" s="70">
         <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="15.75">
-      <c r="A20" s="41" t="s">
+      <c r="A20" s="69" t="s">
         <v>74</v>
       </c>
-      <c r="B20" s="43">
+      <c r="B20" s="72">
         <v>880</v>
       </c>
-      <c r="C20" s="43">
+      <c r="C20" s="72">
         <v>950</v>
       </c>
-      <c r="D20" s="42"/>
-      <c r="E20" s="42">
+      <c r="D20" s="70"/>
+      <c r="E20" s="70">
         <v>10</v>
       </c>
-      <c r="F20" s="40"/>
-      <c r="G20" s="41" t="s">
+      <c r="F20" s="71"/>
+      <c r="G20" s="69" t="s">
         <v>102</v>
       </c>
-      <c r="H20" s="43">
+      <c r="H20" s="72">
         <v>17790</v>
       </c>
-      <c r="I20" s="43">
+      <c r="I20" s="72">
         <v>18990</v>
       </c>
-      <c r="J20" s="42"/>
-      <c r="K20" s="42">
+      <c r="J20" s="70"/>
+      <c r="K20" s="70">
         <v>300</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="15.75">
-      <c r="A21" s="41"/>
-      <c r="B21" s="43"/>
-      <c r="C21" s="43"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="42"/>
-      <c r="F21" s="40"/>
-      <c r="G21" s="41" t="s">
+      <c r="A21" s="69"/>
+      <c r="B21" s="72"/>
+      <c r="C21" s="72"/>
+      <c r="D21" s="70"/>
+      <c r="E21" s="70"/>
+      <c r="F21" s="71"/>
+      <c r="G21" s="69" t="s">
         <v>103</v>
       </c>
-      <c r="H21" s="43">
+      <c r="H21" s="72">
         <v>10330</v>
       </c>
-      <c r="I21" s="43">
+      <c r="I21" s="72">
         <v>10990</v>
       </c>
-      <c r="J21" s="42"/>
-      <c r="K21" s="42">
+      <c r="J21" s="70"/>
+      <c r="K21" s="70">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="15.75">
-      <c r="A22" s="41" t="s">
+      <c r="A22" s="69" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="42">
+      <c r="B22" s="70">
         <v>900</v>
       </c>
-      <c r="C22" s="42">
+      <c r="C22" s="70">
         <v>970</v>
       </c>
-      <c r="D22" s="42"/>
-      <c r="E22" s="42">
+      <c r="D22" s="70"/>
+      <c r="E22" s="70">
         <v>10</v>
       </c>
-      <c r="F22" s="40"/>
-      <c r="G22" s="41" t="s">
+      <c r="F22" s="71"/>
+      <c r="G22" s="69" t="s">
         <v>104</v>
       </c>
-      <c r="H22" s="43">
+      <c r="H22" s="72">
         <v>1730</v>
       </c>
-      <c r="I22" s="43">
+      <c r="I22" s="72">
         <v>1890</v>
       </c>
-      <c r="J22" s="42"/>
-      <c r="K22" s="42">
+      <c r="J22" s="70"/>
+      <c r="K22" s="70">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="15.75">
-      <c r="A23" s="41" t="s">
+      <c r="A23" s="69" t="s">
         <v>38</v>
       </c>
-      <c r="B23" s="42">
+      <c r="B23" s="70">
         <v>1040</v>
       </c>
-      <c r="C23" s="42">
+      <c r="C23" s="70">
         <v>1120</v>
       </c>
-      <c r="D23" s="42"/>
-      <c r="E23" s="42">
+      <c r="D23" s="70"/>
+      <c r="E23" s="70">
         <v>20</v>
       </c>
-      <c r="F23" s="40"/>
-      <c r="G23" s="41" t="s">
+      <c r="F23" s="71"/>
+      <c r="G23" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="H23" s="43">
+      <c r="H23" s="72">
         <v>1250</v>
       </c>
-      <c r="I23" s="43">
+      <c r="I23" s="72">
         <v>1350</v>
       </c>
-      <c r="J23" s="42"/>
-      <c r="K23" s="42">
+      <c r="J23" s="70"/>
+      <c r="K23" s="70">
         <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="15.75">
-      <c r="A24" s="41" t="s">
+      <c r="A24" s="69" t="s">
         <v>120</v>
       </c>
-      <c r="B24" s="43">
+      <c r="B24" s="72">
         <v>1040</v>
       </c>
-      <c r="C24" s="43">
+      <c r="C24" s="72">
         <v>1120</v>
       </c>
-      <c r="D24" s="42"/>
-      <c r="E24" s="42">
+      <c r="D24" s="70"/>
+      <c r="E24" s="70">
         <v>20</v>
       </c>
-      <c r="F24" s="40"/>
-      <c r="G24" s="41" t="s">
+      <c r="F24" s="71"/>
+      <c r="G24" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="H24" s="43">
+      <c r="H24" s="72">
         <v>1370</v>
       </c>
-      <c r="I24" s="43">
+      <c r="I24" s="72">
         <v>1490</v>
       </c>
-      <c r="J24" s="42"/>
-      <c r="K24" s="42">
+      <c r="J24" s="70"/>
+      <c r="K24" s="70">
         <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="15.75">
-      <c r="A25" s="41" t="s">
+      <c r="A25" s="69" t="s">
         <v>71</v>
       </c>
-      <c r="B25" s="43">
+      <c r="B25" s="72">
         <v>930</v>
       </c>
-      <c r="C25" s="43">
+      <c r="C25" s="72">
         <v>999</v>
       </c>
-      <c r="D25" s="42"/>
-      <c r="E25" s="42">
+      <c r="D25" s="70"/>
+      <c r="E25" s="70">
         <v>10</v>
       </c>
-      <c r="F25" s="40"/>
-      <c r="G25" s="41" t="s">
+      <c r="F25" s="71"/>
+      <c r="G25" s="69" t="s">
         <v>105</v>
       </c>
-      <c r="H25" s="43">
+      <c r="H25" s="72">
         <v>1890</v>
       </c>
-      <c r="I25" s="43">
+      <c r="I25" s="72">
         <v>2090</v>
       </c>
-      <c r="J25" s="42"/>
-      <c r="K25" s="42">
+      <c r="J25" s="70"/>
+      <c r="K25" s="70">
         <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="15.75">
-      <c r="A26" s="41" t="s">
+      <c r="A26" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="43">
+      <c r="B26" s="72">
         <v>1290</v>
       </c>
-      <c r="C26" s="43">
+      <c r="C26" s="72">
         <v>1390</v>
       </c>
-      <c r="D26" s="42"/>
-      <c r="E26" s="42">
+      <c r="D26" s="70"/>
+      <c r="E26" s="70">
         <v>10</v>
       </c>
-      <c r="F26" s="40"/>
-      <c r="G26" s="41" t="s">
+      <c r="F26" s="71"/>
+      <c r="G26" s="69" t="s">
         <v>106</v>
       </c>
-      <c r="H26" s="43">
+      <c r="H26" s="72">
         <v>1480</v>
       </c>
-      <c r="I26" s="43">
+      <c r="I26" s="72">
         <v>1590</v>
       </c>
-      <c r="J26" s="42"/>
-      <c r="K26" s="42">
+      <c r="J26" s="70"/>
+      <c r="K26" s="70">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="15.75">
-      <c r="A27" s="41" t="s">
+      <c r="A27" s="69" t="s">
         <v>57</v>
       </c>
-      <c r="B27" s="43">
+      <c r="B27" s="72">
         <v>1190</v>
       </c>
-      <c r="C27" s="43">
+      <c r="C27" s="72">
         <v>1290</v>
       </c>
-      <c r="D27" s="42"/>
-      <c r="E27" s="42">
+      <c r="D27" s="70"/>
+      <c r="E27" s="70">
         <v>10</v>
       </c>
-      <c r="F27" s="40"/>
-      <c r="G27" s="41" t="s">
+      <c r="F27" s="71"/>
+      <c r="G27" s="69" t="s">
         <v>41</v>
       </c>
-      <c r="H27" s="43">
+      <c r="H27" s="72">
         <v>4280</v>
       </c>
-      <c r="I27" s="43">
+      <c r="I27" s="72">
         <v>4590</v>
       </c>
-      <c r="J27" s="42">
+      <c r="J27" s="70">
         <v>300</v>
       </c>
-      <c r="K27" s="42">
+      <c r="K27" s="70">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="15.75">
-      <c r="A28" s="41" t="s">
+      <c r="A28" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="B28" s="43">
+      <c r="B28" s="72">
         <v>1270</v>
       </c>
-      <c r="C28" s="43">
+      <c r="C28" s="72">
         <v>1370</v>
       </c>
-      <c r="D28" s="42"/>
-      <c r="E28" s="42">
+      <c r="D28" s="70"/>
+      <c r="E28" s="70">
         <v>10</v>
       </c>
-      <c r="F28" s="40"/>
-      <c r="G28" s="41" t="s">
+      <c r="F28" s="71"/>
+      <c r="G28" s="69" t="s">
         <v>107</v>
       </c>
-      <c r="H28" s="43">
+      <c r="H28" s="72">
         <v>5650</v>
       </c>
-      <c r="I28" s="43">
+      <c r="I28" s="72">
         <v>6150</v>
       </c>
-      <c r="J28" s="42"/>
-      <c r="K28" s="42">
+      <c r="J28" s="70"/>
+      <c r="K28" s="70">
         <v>75</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="15.75">
-      <c r="A29" s="41" t="s">
+      <c r="A29" s="69" t="s">
         <v>59</v>
       </c>
-      <c r="B29" s="43">
+      <c r="B29" s="72">
         <v>1170</v>
       </c>
-      <c r="C29" s="43">
+      <c r="C29" s="72">
         <v>1270</v>
       </c>
-      <c r="D29" s="42"/>
-      <c r="E29" s="42">
+      <c r="D29" s="70"/>
+      <c r="E29" s="70">
         <v>10</v>
       </c>
-      <c r="F29" s="40"/>
-      <c r="G29" s="41" t="s">
+      <c r="F29" s="71"/>
+      <c r="G29" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="H29" s="43">
+      <c r="H29" s="72">
         <v>5020</v>
       </c>
-      <c r="I29" s="43">
+      <c r="I29" s="72">
         <v>5390</v>
       </c>
-      <c r="J29" s="42"/>
-      <c r="K29" s="42">
+      <c r="J29" s="70"/>
+      <c r="K29" s="70">
         <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="15.75">
-      <c r="A30" s="41" t="s">
+      <c r="A30" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="B30" s="43">
+      <c r="B30" s="72">
         <v>1190</v>
       </c>
-      <c r="C30" s="43">
+      <c r="C30" s="72">
         <v>1290</v>
       </c>
-      <c r="D30" s="42"/>
-      <c r="E30" s="42">
+      <c r="D30" s="70"/>
+      <c r="E30" s="70">
         <v>10</v>
       </c>
-      <c r="F30" s="40"/>
-      <c r="G30" s="41" t="s">
+      <c r="F30" s="71"/>
+      <c r="G30" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="H30" s="43">
+      <c r="H30" s="72">
         <v>5280</v>
       </c>
-      <c r="I30" s="43">
+      <c r="I30" s="72">
         <v>5690</v>
       </c>
-      <c r="J30" s="42"/>
-      <c r="K30" s="42">
+      <c r="J30" s="70"/>
+      <c r="K30" s="70">
         <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="15.75">
-      <c r="A31" s="41" t="s">
+      <c r="A31" s="69" t="s">
         <v>108</v>
       </c>
-      <c r="B31" s="43">
+      <c r="B31" s="72">
         <v>2780</v>
       </c>
-      <c r="C31" s="43">
+      <c r="C31" s="72">
         <v>2990</v>
       </c>
-      <c r="D31" s="42"/>
-      <c r="E31" s="42">
+      <c r="D31" s="70"/>
+      <c r="E31" s="70">
         <v>30</v>
       </c>
-      <c r="F31" s="40"/>
-      <c r="G31" s="41" t="s">
+      <c r="F31" s="71"/>
+      <c r="G31" s="69" t="s">
         <v>68</v>
       </c>
-      <c r="H31" s="43">
+      <c r="H31" s="72">
         <v>4550</v>
       </c>
-      <c r="I31" s="43">
+      <c r="I31" s="72">
         <v>4890</v>
       </c>
-      <c r="J31" s="42"/>
-      <c r="K31" s="42">
+      <c r="J31" s="70"/>
+      <c r="K31" s="70">
         <v>80</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="15.75">
-      <c r="A32" s="41" t="s">
+      <c r="A32" s="69" t="s">
         <v>122</v>
       </c>
-      <c r="B32" s="43">
+      <c r="B32" s="72">
         <v>2770</v>
       </c>
-      <c r="C32" s="43">
+      <c r="C32" s="72">
         <v>2990</v>
       </c>
-      <c r="D32" s="42"/>
-      <c r="E32" s="42">
+      <c r="D32" s="70"/>
+      <c r="E32" s="70">
         <v>30</v>
       </c>
-      <c r="F32" s="40"/>
-      <c r="G32" s="41" t="s">
+      <c r="F32" s="71"/>
+      <c r="G32" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="H32" s="43">
+      <c r="H32" s="72">
         <v>5100</v>
       </c>
-      <c r="I32" s="43">
+      <c r="I32" s="72">
         <v>5490</v>
       </c>
-      <c r="J32" s="42">
+      <c r="J32" s="70">
         <v>70</v>
       </c>
-      <c r="K32" s="42">
+      <c r="K32" s="70">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="15.75">
-      <c r="A33" s="41" t="s">
+      <c r="A33" s="69" t="s">
         <v>109</v>
       </c>
-      <c r="B33" s="43">
+      <c r="B33" s="72">
         <v>8290</v>
       </c>
-      <c r="C33" s="43">
+      <c r="C33" s="72">
         <v>8890</v>
       </c>
-      <c r="D33" s="42"/>
-      <c r="E33" s="42"/>
-      <c r="F33" s="40"/>
-      <c r="G33" s="41" t="s">
+      <c r="D33" s="70"/>
+      <c r="E33" s="70"/>
+      <c r="F33" s="71"/>
+      <c r="G33" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="H33" s="43">
+      <c r="H33" s="72">
         <v>5560</v>
       </c>
-      <c r="I33" s="43">
+      <c r="I33" s="72">
         <v>5990</v>
       </c>
-      <c r="J33" s="42">
+      <c r="J33" s="70">
         <v>200</v>
       </c>
-      <c r="K33" s="42">
+      <c r="K33" s="70">
         <v>100</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="15.75">
-      <c r="A34" s="41" t="s">
+      <c r="A34" s="69" t="s">
         <v>118</v>
       </c>
-      <c r="B34" s="43">
+      <c r="B34" s="72">
         <v>8340</v>
       </c>
-      <c r="C34" s="43">
+      <c r="C34" s="72">
         <v>8990</v>
       </c>
-      <c r="D34" s="42"/>
-      <c r="E34" s="42">
+      <c r="D34" s="70"/>
+      <c r="E34" s="70">
         <v>100</v>
       </c>
-      <c r="F34" s="40"/>
-      <c r="G34" s="41"/>
-      <c r="H34" s="43"/>
-      <c r="I34" s="43"/>
-      <c r="J34" s="42"/>
-      <c r="K34" s="42"/>
+      <c r="F34" s="71"/>
+      <c r="G34" s="69"/>
+      <c r="H34" s="72"/>
+      <c r="I34" s="72"/>
+      <c r="J34" s="70"/>
+      <c r="K34" s="70"/>
     </row>
     <row r="35" spans="1:11" ht="15.75">
-      <c r="A35" s="41" t="s">
+      <c r="A35" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="B35" s="43">
+      <c r="B35" s="72">
         <v>9190</v>
       </c>
-      <c r="C35" s="43">
+      <c r="C35" s="72">
         <v>9990</v>
       </c>
-      <c r="D35" s="42"/>
-      <c r="E35" s="42">
+      <c r="D35" s="70"/>
+      <c r="E35" s="70">
         <v>170</v>
       </c>
-      <c r="F35" s="40"/>
-      <c r="G35" s="41" t="s">
+      <c r="F35" s="71"/>
+      <c r="G35" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="H35" s="43">
+      <c r="H35" s="72">
         <v>5390</v>
       </c>
-      <c r="I35" s="43">
+      <c r="I35" s="72">
         <v>5790</v>
       </c>
-      <c r="J35" s="42">
+      <c r="J35" s="70">
         <v>200</v>
       </c>
-      <c r="K35" s="42">
+      <c r="K35" s="70">
         <v>120</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="15.75">
-      <c r="A36" s="41" t="s">
+      <c r="A36" s="69" t="s">
         <v>119</v>
       </c>
-      <c r="B36" s="43">
+      <c r="B36" s="72">
         <v>6540</v>
       </c>
-      <c r="C36" s="43">
+      <c r="C36" s="72">
         <v>6990</v>
       </c>
-      <c r="D36" s="42"/>
-      <c r="E36" s="42"/>
-      <c r="F36" s="40"/>
-      <c r="G36" s="41" t="s">
+      <c r="D36" s="70"/>
+      <c r="E36" s="70"/>
+      <c r="F36" s="71"/>
+      <c r="G36" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="H36" s="43">
+      <c r="H36" s="72">
         <v>3560</v>
       </c>
-      <c r="I36" s="43">
+      <c r="I36" s="72">
         <v>3840</v>
       </c>
-      <c r="J36" s="42">
+      <c r="J36" s="70">
         <v>400</v>
       </c>
-      <c r="K36" s="42">
+      <c r="K36" s="70">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="15.75">
-      <c r="A37" s="41" t="s">
+      <c r="A37" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="B37" s="43">
+      <c r="B37" s="72">
         <v>5290</v>
       </c>
-      <c r="C37" s="43">
+      <c r="C37" s="72">
         <v>5690</v>
       </c>
-      <c r="D37" s="42"/>
-      <c r="E37" s="42">
+      <c r="D37" s="70"/>
+      <c r="E37" s="70">
         <v>80</v>
       </c>
-      <c r="F37" s="40"/>
-      <c r="G37" s="50" t="s">
+      <c r="F37" s="71"/>
+      <c r="G37" s="74" t="s">
         <v>35</v>
       </c>
-      <c r="H37" s="43">
+      <c r="H37" s="72">
         <v>3340</v>
       </c>
-      <c r="I37" s="43">
+      <c r="I37" s="72">
         <v>3590</v>
       </c>
-      <c r="J37" s="42">
+      <c r="J37" s="70">
         <v>320</v>
       </c>
-      <c r="K37" s="42">
+      <c r="K37" s="70">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="15.75">
-      <c r="A38" s="41" t="s">
+      <c r="A38" s="69" t="s">
         <v>66</v>
       </c>
-      <c r="B38" s="43">
+      <c r="B38" s="72">
         <v>5470</v>
       </c>
-      <c r="C38" s="43">
+      <c r="C38" s="72">
         <v>5890</v>
       </c>
-      <c r="D38" s="42"/>
-      <c r="E38" s="42">
+      <c r="D38" s="70"/>
+      <c r="E38" s="70">
         <v>70</v>
       </c>
-      <c r="F38" s="40"/>
-      <c r="G38" s="41" t="s">
+      <c r="F38" s="71"/>
+      <c r="G38" s="69" t="s">
         <v>110</v>
       </c>
-      <c r="H38" s="43">
+      <c r="H38" s="72">
         <v>4500</v>
       </c>
-      <c r="I38" s="43">
+      <c r="I38" s="72">
         <v>4790</v>
       </c>
-      <c r="J38" s="42"/>
-      <c r="K38" s="42">
+      <c r="J38" s="70"/>
+      <c r="K38" s="70">
         <v>100</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="15.75">
-      <c r="A39" s="41" t="s">
+      <c r="A39" s="69" t="s">
         <v>56</v>
       </c>
-      <c r="B39" s="43">
+      <c r="B39" s="72">
         <v>5750</v>
       </c>
-      <c r="C39" s="43">
+      <c r="C39" s="72">
         <v>6190</v>
       </c>
-      <c r="D39" s="42"/>
-      <c r="E39" s="42">
+      <c r="D39" s="70"/>
+      <c r="E39" s="70">
         <v>80</v>
       </c>
-      <c r="F39" s="40"/>
-      <c r="G39" s="41" t="s">
+      <c r="F39" s="71"/>
+      <c r="G39" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="H39" s="43">
+      <c r="H39" s="72">
         <v>5390</v>
       </c>
-      <c r="I39" s="43">
+      <c r="I39" s="72">
         <v>5790</v>
       </c>
-      <c r="J39" s="42"/>
-      <c r="K39" s="42">
+      <c r="J39" s="70"/>
+      <c r="K39" s="70">
         <v>75</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="15.75">
-      <c r="A40" s="41" t="s">
+      <c r="A40" s="69" t="s">
         <v>123</v>
       </c>
-      <c r="B40" s="43">
+      <c r="B40" s="72">
         <v>5550</v>
       </c>
-      <c r="C40" s="43">
+      <c r="C40" s="72">
         <v>5990</v>
       </c>
-      <c r="D40" s="42"/>
-      <c r="E40" s="42">
+      <c r="D40" s="70"/>
+      <c r="E40" s="70">
         <v>60</v>
       </c>
-      <c r="F40" s="40"/>
-      <c r="G40" s="51" t="s">
+      <c r="F40" s="71"/>
+      <c r="G40" s="75" t="s">
         <v>27</v>
       </c>
-      <c r="H40" s="43">
+      <c r="H40" s="72">
         <v>4970</v>
       </c>
-      <c r="I40" s="43">
+      <c r="I40" s="72">
         <v>5290</v>
       </c>
-      <c r="J40" s="42"/>
-      <c r="K40" s="42">
+      <c r="J40" s="70"/>
+      <c r="K40" s="70">
         <v>130</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="15.75">
-      <c r="A41" s="41" t="s">
+      <c r="A41" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="B41" s="43">
+      <c r="B41" s="72">
         <v>5940</v>
       </c>
-      <c r="C41" s="43">
+      <c r="C41" s="72">
         <v>6390</v>
       </c>
-      <c r="D41" s="42"/>
-      <c r="E41" s="42">
+      <c r="D41" s="70"/>
+      <c r="E41" s="70">
         <v>90</v>
       </c>
-      <c r="F41" s="40"/>
-      <c r="G41" s="41" t="s">
+      <c r="F41" s="71"/>
+      <c r="G41" s="69" t="s">
         <v>52</v>
       </c>
-      <c r="H41" s="43">
+      <c r="H41" s="72">
         <v>4015</v>
       </c>
-      <c r="I41" s="43">
+      <c r="I41" s="72">
         <v>4390</v>
       </c>
-      <c r="J41" s="42"/>
-      <c r="K41" s="42">
+      <c r="J41" s="70"/>
+      <c r="K41" s="70">
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="15.75">
-      <c r="A42" s="41"/>
-      <c r="B42" s="43"/>
-      <c r="C42" s="43"/>
-      <c r="D42" s="42"/>
-      <c r="E42" s="42"/>
-      <c r="F42" s="40"/>
-      <c r="G42" s="41" t="s">
+      <c r="A42" s="69"/>
+      <c r="B42" s="72"/>
+      <c r="C42" s="72"/>
+      <c r="D42" s="70"/>
+      <c r="E42" s="70"/>
+      <c r="F42" s="71"/>
+      <c r="G42" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="H42" s="43">
+      <c r="H42" s="72">
         <v>3710</v>
       </c>
-      <c r="I42" s="43">
+      <c r="I42" s="72">
         <v>3990</v>
       </c>
-      <c r="J42" s="42">
+      <c r="J42" s="70">
         <v>200</v>
       </c>
-      <c r="K42" s="42">
+      <c r="K42" s="70">
         <v>40</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="15.75">
-      <c r="A43" s="41" t="s">
+      <c r="A43" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="B43" s="43">
+      <c r="B43" s="72">
         <v>6530</v>
       </c>
-      <c r="C43" s="43">
+      <c r="C43" s="72">
         <v>6990</v>
       </c>
-      <c r="D43" s="42"/>
-      <c r="E43" s="42">
+      <c r="D43" s="70"/>
+      <c r="E43" s="70">
         <v>0</v>
       </c>
-      <c r="F43" s="40"/>
-      <c r="G43" s="41" t="s">
+      <c r="F43" s="71"/>
+      <c r="G43" s="69" t="s">
         <v>111</v>
       </c>
-      <c r="H43" s="43">
+      <c r="H43" s="72">
         <v>3620</v>
       </c>
-      <c r="I43" s="43">
+      <c r="I43" s="72">
         <v>3890</v>
       </c>
-      <c r="J43" s="42">
+      <c r="J43" s="70">
         <v>320</v>
       </c>
-      <c r="K43" s="42">
+      <c r="K43" s="70">
         <v>50</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="15.75">
-      <c r="A44" s="41" t="s">
+      <c r="A44" s="69" t="s">
         <v>77</v>
       </c>
-      <c r="B44" s="43">
+      <c r="B44" s="72">
         <v>6890</v>
       </c>
-      <c r="C44" s="43">
+      <c r="C44" s="72">
         <v>7490</v>
       </c>
-      <c r="D44" s="42"/>
-      <c r="E44" s="42">
+      <c r="D44" s="70"/>
+      <c r="E44" s="70">
         <v>0</v>
       </c>
-      <c r="F44" s="40"/>
-      <c r="G44" s="41" t="s">
+      <c r="F44" s="71"/>
+      <c r="G44" s="69" t="s">
         <v>40</v>
       </c>
-      <c r="H44" s="43">
+      <c r="H44" s="72">
         <v>4080</v>
       </c>
-      <c r="I44" s="43">
+      <c r="I44" s="72">
         <v>4390</v>
       </c>
-      <c r="J44" s="42">
+      <c r="J44" s="70">
         <v>200</v>
       </c>
-      <c r="K44" s="42">
+      <c r="K44" s="70">
         <v>70</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="15.75">
-      <c r="A45" s="41" t="s">
+      <c r="A45" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="B45" s="43">
+      <c r="B45" s="72">
         <v>1220</v>
       </c>
-      <c r="C45" s="43">
+      <c r="C45" s="72">
         <v>1320</v>
       </c>
-      <c r="D45" s="42"/>
-      <c r="E45" s="42">
+      <c r="D45" s="70"/>
+      <c r="E45" s="70">
         <v>20</v>
       </c>
-      <c r="F45" s="40"/>
-      <c r="G45" s="41" t="s">
+      <c r="F45" s="71"/>
+      <c r="G45" s="69" t="s">
         <v>113</v>
       </c>
-      <c r="H45" s="43">
+      <c r="H45" s="72">
         <v>4220</v>
       </c>
-      <c r="I45" s="43">
+      <c r="I45" s="72">
         <v>4540</v>
       </c>
-      <c r="J45" s="42"/>
-      <c r="K45" s="42">
+      <c r="J45" s="70"/>
+      <c r="K45" s="70">
         <v>50</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="15.75">
-      <c r="A46" s="41" t="s">
+      <c r="A46" s="69" t="s">
         <v>112</v>
       </c>
-      <c r="B46" s="43">
+      <c r="B46" s="72">
         <v>1460</v>
       </c>
-      <c r="C46" s="43">
+      <c r="C46" s="72">
         <v>1590</v>
       </c>
-      <c r="D46" s="42"/>
-      <c r="E46" s="42">
+      <c r="D46" s="70"/>
+      <c r="E46" s="70">
         <v>20</v>
       </c>
-      <c r="F46" s="40"/>
-      <c r="G46" s="41" t="s">
+      <c r="F46" s="71"/>
+      <c r="G46" s="69" t="s">
         <v>91</v>
       </c>
-      <c r="H46" s="43">
+      <c r="H46" s="72">
         <v>3710</v>
       </c>
-      <c r="I46" s="43">
+      <c r="I46" s="72">
         <v>3990</v>
       </c>
-      <c r="J46" s="42"/>
-      <c r="K46" s="42">
+      <c r="J46" s="70"/>
+      <c r="K46" s="70">
         <v>50</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="15.75">
-      <c r="A47" s="41" t="s">
+      <c r="A47" s="69" t="s">
         <v>90</v>
       </c>
-      <c r="B47" s="43">
+      <c r="B47" s="72">
         <v>1070</v>
       </c>
-      <c r="C47" s="43">
+      <c r="C47" s="72">
         <v>1160</v>
       </c>
-      <c r="D47" s="42"/>
-      <c r="E47" s="42">
+      <c r="D47" s="70"/>
+      <c r="E47" s="70">
         <v>0</v>
       </c>
-      <c r="F47" s="40"/>
-      <c r="G47" s="41" t="s">
+      <c r="F47" s="71"/>
+      <c r="G47" s="69" t="s">
         <v>114</v>
       </c>
-      <c r="H47" s="43">
+      <c r="H47" s="72">
         <v>12590</v>
       </c>
-      <c r="I47" s="43">
+      <c r="I47" s="72">
         <v>13490</v>
       </c>
-      <c r="J47" s="42"/>
-      <c r="K47" s="42">
+      <c r="J47" s="70"/>
+      <c r="K47" s="70">
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="15.75">
-      <c r="A48" s="41"/>
-      <c r="B48" s="43"/>
-      <c r="C48" s="43"/>
-      <c r="D48" s="42"/>
-      <c r="E48" s="42"/>
-      <c r="F48" s="40"/>
-      <c r="G48" s="41" t="s">
+      <c r="A48" s="69"/>
+      <c r="B48" s="72"/>
+      <c r="C48" s="72"/>
+      <c r="D48" s="70"/>
+      <c r="E48" s="70"/>
+      <c r="F48" s="71"/>
+      <c r="G48" s="69" t="s">
         <v>65</v>
       </c>
-      <c r="H48" s="43">
+      <c r="H48" s="72">
         <v>7890</v>
       </c>
-      <c r="I48" s="43">
+      <c r="I48" s="72">
         <v>8490</v>
       </c>
-      <c r="J48" s="42"/>
-      <c r="K48" s="42">
+      <c r="J48" s="70"/>
+      <c r="K48" s="70">
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="15.75">
-      <c r="A49" s="41" t="s">
+      <c r="A49" s="69" t="s">
         <v>55</v>
       </c>
-      <c r="B49" s="43">
+      <c r="B49" s="72">
         <v>1200</v>
       </c>
-      <c r="C49" s="43">
+      <c r="C49" s="72">
         <v>1290</v>
       </c>
-      <c r="D49" s="42"/>
-      <c r="E49" s="42">
+      <c r="D49" s="70"/>
+      <c r="E49" s="70">
         <v>0</v>
       </c>
-      <c r="F49" s="40"/>
-      <c r="G49" s="41" t="s">
+      <c r="F49" s="71"/>
+      <c r="G49" s="69" t="s">
         <v>124</v>
       </c>
-      <c r="H49" s="43"/>
-      <c r="I49" s="43"/>
-      <c r="J49" s="42"/>
-      <c r="K49" s="42"/>
+      <c r="H49" s="72">
+        <v>8310</v>
+      </c>
+      <c r="I49" s="72">
+        <v>8990</v>
+      </c>
+      <c r="J49" s="70"/>
+      <c r="K49" s="70"/>
     </row>
     <row r="50" spans="1:11" ht="15.75">
-      <c r="A50" s="41" t="s">
+      <c r="A50" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="B50" s="43">
+      <c r="B50" s="72">
         <v>1080</v>
       </c>
-      <c r="C50" s="43">
+      <c r="C50" s="72">
         <v>1160</v>
       </c>
-      <c r="D50" s="42"/>
-      <c r="E50" s="42">
+      <c r="D50" s="70"/>
+      <c r="E50" s="70">
         <v>10</v>
       </c>
-      <c r="F50" s="40"/>
-      <c r="G50" s="41"/>
-      <c r="H50" s="43"/>
-      <c r="I50" s="43"/>
-      <c r="J50" s="42"/>
-      <c r="K50" s="42"/>
+      <c r="F50" s="71"/>
+      <c r="G50" s="69"/>
+      <c r="H50" s="72"/>
+      <c r="I50" s="72"/>
+      <c r="J50" s="70"/>
+      <c r="K50" s="70"/>
     </row>
     <row r="51" spans="1:11" ht="15.75">
-      <c r="A51" s="41" t="s">
+      <c r="A51" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="B51" s="43">
+      <c r="B51" s="72">
         <v>1100</v>
       </c>
-      <c r="C51" s="43">
+      <c r="C51" s="72">
         <v>1199</v>
       </c>
-      <c r="D51" s="42"/>
-      <c r="E51" s="42">
+      <c r="D51" s="70"/>
+      <c r="E51" s="70">
         <v>20</v>
       </c>
-      <c r="F51" s="40"/>
-      <c r="G51" s="41"/>
-      <c r="H51" s="43"/>
-      <c r="I51" s="43"/>
-      <c r="J51" s="42"/>
-      <c r="K51" s="42"/>
+      <c r="F51" s="71"/>
+      <c r="G51" s="69"/>
+      <c r="H51" s="72"/>
+      <c r="I51" s="72"/>
+      <c r="J51" s="70"/>
+      <c r="K51" s="70"/>
     </row>
     <row r="52" spans="1:11">
-      <c r="A52" s="67" t="s">
+      <c r="A52" s="76" t="s">
         <v>92</v>
       </c>
-      <c r="B52" s="68"/>
-      <c r="C52" s="68"/>
-      <c r="D52" s="68" t="s">
+      <c r="B52" s="42"/>
+      <c r="C52" s="42"/>
+      <c r="D52" s="42" t="s">
         <v>115</v>
       </c>
-      <c r="E52" s="68"/>
-      <c r="F52" s="68"/>
-      <c r="G52" s="68"/>
-      <c r="H52" s="68"/>
-      <c r="I52" s="75" t="s">
+      <c r="E52" s="42"/>
+      <c r="F52" s="42"/>
+      <c r="G52" s="42"/>
+      <c r="H52" s="42"/>
+      <c r="I52" s="77" t="s">
         <v>116</v>
       </c>
-      <c r="J52" s="75"/>
-      <c r="K52" s="76"/>
+      <c r="J52" s="77"/>
+      <c r="K52" s="78"/>
     </row>
     <row r="53" spans="1:11">
-      <c r="A53" s="69"/>
-      <c r="B53" s="70"/>
-      <c r="C53" s="70"/>
-      <c r="D53" s="70"/>
-      <c r="E53" s="70"/>
-      <c r="F53" s="70"/>
-      <c r="G53" s="70"/>
-      <c r="H53" s="70"/>
-      <c r="I53" s="77"/>
-      <c r="J53" s="77"/>
-      <c r="K53" s="78"/>
+      <c r="A53" s="79"/>
+      <c r="B53" s="43"/>
+      <c r="C53" s="43"/>
+      <c r="D53" s="43"/>
+      <c r="E53" s="43"/>
+      <c r="F53" s="43"/>
+      <c r="G53" s="43"/>
+      <c r="H53" s="43"/>
+      <c r="I53" s="80"/>
+      <c r="J53" s="80"/>
+      <c r="K53" s="81"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/November/Others/Price List Update_01.11.19.xlsx
+++ b/November/Others/Price List Update_01.11.19.xlsx
@@ -877,6 +877,39 @@
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="25" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -946,55 +979,22 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="25" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1315,7 +1315,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -2415,7 +2415,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -2861,7 +2861,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -2932,7 +2932,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -3006,7 +3006,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -3077,7 +3077,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -3394,7 +3394,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -4494,7 +4494,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -4940,7 +4940,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -5011,7 +5011,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -5085,7 +5085,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -5156,7 +5156,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -5473,7 +5473,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -6573,7 +6573,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -7019,7 +7019,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -7090,7 +7090,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -7164,7 +7164,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -7235,7 +7235,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -7791,48 +7791,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="35.25" customHeight="1">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="63" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="64" t="s">
         <v>80</v>
       </c>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="65" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
       <c r="E3" s="20"/>
-      <c r="F3" s="54" t="s">
+      <c r="F3" s="65" t="s">
         <v>82</v>
       </c>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="54"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="65"/>
     </row>
     <row r="4" spans="1:10" s="6" customFormat="1" ht="18" customHeight="1">
       <c r="A4" s="5" t="s">
@@ -8933,38 +8933,38 @@
       <c r="J44" s="27"/>
     </row>
     <row r="45" spans="1:14">
-      <c r="A45" s="48" t="s">
+      <c r="A45" s="59" t="s">
         <v>86</v>
       </c>
-      <c r="B45" s="49"/>
-      <c r="C45" s="49"/>
-      <c r="D45" s="42" t="s">
+      <c r="B45" s="60"/>
+      <c r="C45" s="60"/>
+      <c r="D45" s="53" t="s">
         <v>84</v>
       </c>
-      <c r="E45" s="42"/>
-      <c r="F45" s="42"/>
-      <c r="G45" s="42"/>
-      <c r="H45" s="44" t="s">
+      <c r="E45" s="53"/>
+      <c r="F45" s="53"/>
+      <c r="G45" s="53"/>
+      <c r="H45" s="55" t="s">
         <v>83</v>
       </c>
-      <c r="I45" s="44"/>
-      <c r="J45" s="45"/>
+      <c r="I45" s="55"/>
+      <c r="J45" s="56"/>
       <c r="K45" s="21"/>
       <c r="L45" s="21"/>
       <c r="M45" s="21"/>
       <c r="N45" s="21"/>
     </row>
     <row r="46" spans="1:14">
-      <c r="A46" s="50"/>
-      <c r="B46" s="51"/>
-      <c r="C46" s="51"/>
-      <c r="D46" s="43"/>
-      <c r="E46" s="43"/>
-      <c r="F46" s="43"/>
-      <c r="G46" s="43"/>
-      <c r="H46" s="46"/>
-      <c r="I46" s="46"/>
-      <c r="J46" s="47"/>
+      <c r="A46" s="61"/>
+      <c r="B46" s="62"/>
+      <c r="C46" s="62"/>
+      <c r="D46" s="54"/>
+      <c r="E46" s="54"/>
+      <c r="F46" s="54"/>
+      <c r="G46" s="54"/>
+      <c r="H46" s="57"/>
+      <c r="I46" s="57"/>
+      <c r="J46" s="58"/>
       <c r="K46" s="23"/>
       <c r="L46" s="22"/>
       <c r="M46" s="22"/>
@@ -9037,45 +9037,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="29" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="66" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
     </row>
     <row r="2" spans="1:9" ht="17.25">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="64" t="s">
         <v>80</v>
       </c>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
     </row>
     <row r="3" spans="1:9" ht="17.25">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="65" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
       <c r="E3" s="20"/>
-      <c r="F3" s="54" t="s">
+      <c r="F3" s="65" t="s">
         <v>95</v>
       </c>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
     </row>
     <row r="4" spans="1:9" ht="18" customHeight="1">
       <c r="A4" s="30" t="s">
@@ -10048,32 +10048,32 @@
       <c r="I45" s="28"/>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="56" t="s">
+      <c r="A46" s="67" t="s">
         <v>92</v>
       </c>
-      <c r="B46" s="57"/>
-      <c r="C46" s="57" t="s">
+      <c r="B46" s="68"/>
+      <c r="C46" s="68" t="s">
         <v>94</v>
       </c>
-      <c r="D46" s="57"/>
-      <c r="E46" s="57"/>
-      <c r="F46" s="57"/>
-      <c r="G46" s="57" t="s">
+      <c r="D46" s="68"/>
+      <c r="E46" s="68"/>
+      <c r="F46" s="68"/>
+      <c r="G46" s="68" t="s">
         <v>93</v>
       </c>
-      <c r="H46" s="57"/>
-      <c r="I46" s="60"/>
+      <c r="H46" s="68"/>
+      <c r="I46" s="71"/>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="58"/>
-      <c r="B47" s="59"/>
-      <c r="C47" s="59"/>
-      <c r="D47" s="59"/>
-      <c r="E47" s="59"/>
-      <c r="F47" s="59"/>
-      <c r="G47" s="59"/>
-      <c r="H47" s="59"/>
-      <c r="I47" s="61"/>
+      <c r="A47" s="69"/>
+      <c r="B47" s="70"/>
+      <c r="C47" s="70"/>
+      <c r="D47" s="70"/>
+      <c r="E47" s="70"/>
+      <c r="F47" s="70"/>
+      <c r="G47" s="70"/>
+      <c r="H47" s="70"/>
+      <c r="I47" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -10119,1437 +10119,1437 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="27" customHeight="1">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="73" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
     </row>
     <row r="2" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="74" t="s">
         <v>117</v>
       </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="74"/>
     </row>
     <row r="3" spans="1:11" s="41" customFormat="1" ht="18.75">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="75" t="s">
         <v>96</v>
       </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="64" t="s">
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="75" t="s">
         <v>125</v>
       </c>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="64"/>
-      <c r="K3" s="64"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="75"/>
+      <c r="K3" s="75"/>
     </row>
     <row r="4" spans="1:11" s="40" customFormat="1" ht="24" customHeight="1">
-      <c r="A4" s="66" t="s">
+      <c r="A4" s="43" t="s">
         <v>97</v>
       </c>
-      <c r="B4" s="66" t="s">
+      <c r="B4" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="66" t="s">
+      <c r="C4" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="67" t="s">
+      <c r="D4" s="44" t="s">
         <v>98</v>
       </c>
-      <c r="E4" s="67" t="s">
+      <c r="E4" s="44" t="s">
         <v>99</v>
       </c>
-      <c r="F4" s="68"/>
-      <c r="G4" s="66" t="s">
+      <c r="F4" s="45"/>
+      <c r="G4" s="43" t="s">
         <v>97</v>
       </c>
-      <c r="H4" s="66" t="s">
+      <c r="H4" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="66" t="s">
+      <c r="I4" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="J4" s="67" t="s">
+      <c r="J4" s="44" t="s">
         <v>98</v>
       </c>
-      <c r="K4" s="67" t="s">
+      <c r="K4" s="44" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75">
-      <c r="A5" s="69" t="s">
+      <c r="A5" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="70">
+      <c r="B5" s="47">
         <v>800</v>
       </c>
-      <c r="C5" s="70">
+      <c r="C5" s="47">
         <v>875</v>
       </c>
-      <c r="D5" s="70"/>
-      <c r="E5" s="70">
+      <c r="D5" s="47"/>
+      <c r="E5" s="47">
         <v>10</v>
       </c>
-      <c r="F5" s="71"/>
-      <c r="G5" s="69" t="s">
+      <c r="F5" s="48"/>
+      <c r="G5" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="72">
+      <c r="H5" s="49">
         <v>1010</v>
       </c>
-      <c r="I5" s="72">
+      <c r="I5" s="49">
         <v>1090</v>
       </c>
-      <c r="J5" s="70"/>
-      <c r="K5" s="70">
+      <c r="J5" s="47"/>
+      <c r="K5" s="47">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15.75">
-      <c r="A6" s="69" t="s">
+      <c r="A6" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="B6" s="70">
+      <c r="B6" s="47">
         <v>780</v>
       </c>
-      <c r="C6" s="70">
+      <c r="C6" s="47">
         <v>840</v>
       </c>
-      <c r="D6" s="70"/>
-      <c r="E6" s="70">
+      <c r="D6" s="47"/>
+      <c r="E6" s="47">
         <v>10</v>
       </c>
-      <c r="F6" s="71"/>
-      <c r="G6" s="69" t="s">
+      <c r="F6" s="48"/>
+      <c r="G6" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="H6" s="72">
+      <c r="H6" s="49">
         <v>1040</v>
       </c>
-      <c r="I6" s="72">
+      <c r="I6" s="49">
         <v>1130</v>
       </c>
-      <c r="J6" s="70"/>
-      <c r="K6" s="70">
+      <c r="J6" s="47"/>
+      <c r="K6" s="47">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15.75">
-      <c r="A7" s="69" t="s">
+      <c r="A7" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="70">
+      <c r="B7" s="47">
         <v>810</v>
       </c>
-      <c r="C7" s="70">
+      <c r="C7" s="47">
         <v>880</v>
       </c>
-      <c r="D7" s="70"/>
-      <c r="E7" s="70">
+      <c r="D7" s="47"/>
+      <c r="E7" s="47">
         <v>10</v>
       </c>
-      <c r="F7" s="71"/>
-      <c r="G7" s="73" t="s">
+      <c r="F7" s="48"/>
+      <c r="G7" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="H7" s="72">
+      <c r="H7" s="49">
         <v>970</v>
       </c>
-      <c r="I7" s="72">
+      <c r="I7" s="49">
         <v>1050</v>
       </c>
-      <c r="J7" s="70"/>
-      <c r="K7" s="70">
+      <c r="J7" s="47"/>
+      <c r="K7" s="47">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15.75">
-      <c r="A8" s="69" t="s">
+      <c r="A8" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="70">
+      <c r="B8" s="47">
         <v>800</v>
       </c>
-      <c r="C8" s="70">
+      <c r="C8" s="47">
         <v>870</v>
       </c>
-      <c r="D8" s="70"/>
-      <c r="E8" s="70">
+      <c r="D8" s="47"/>
+      <c r="E8" s="47">
         <v>10</v>
       </c>
-      <c r="F8" s="71"/>
-      <c r="G8" s="69" t="s">
+      <c r="F8" s="48"/>
+      <c r="G8" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="H8" s="72">
+      <c r="H8" s="49">
         <v>1100</v>
       </c>
-      <c r="I8" s="72">
+      <c r="I8" s="49">
         <v>1199</v>
       </c>
-      <c r="J8" s="70"/>
-      <c r="K8" s="70">
+      <c r="J8" s="47"/>
+      <c r="K8" s="47">
         <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15.75">
-      <c r="A9" s="69" t="s">
+      <c r="A9" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="70">
+      <c r="B9" s="47">
         <v>790</v>
       </c>
-      <c r="C9" s="70">
+      <c r="C9" s="47">
         <v>860</v>
       </c>
-      <c r="D9" s="70">
+      <c r="D9" s="47">
         <v>30</v>
       </c>
-      <c r="E9" s="70">
+      <c r="E9" s="47">
         <v>10</v>
       </c>
-      <c r="F9" s="71"/>
-      <c r="G9" s="69" t="s">
+      <c r="F9" s="48"/>
+      <c r="G9" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="H9" s="72">
+      <c r="H9" s="49">
         <v>1050</v>
       </c>
-      <c r="I9" s="72">
+      <c r="I9" s="49">
         <v>1130</v>
       </c>
-      <c r="J9" s="70"/>
-      <c r="K9" s="70">
+      <c r="J9" s="47"/>
+      <c r="K9" s="47">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15.75">
-      <c r="A10" s="69" t="s">
+      <c r="A10" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="B10" s="70">
+      <c r="B10" s="47">
         <v>800</v>
       </c>
-      <c r="C10" s="70">
+      <c r="C10" s="47">
         <v>860</v>
       </c>
-      <c r="D10" s="70"/>
-      <c r="E10" s="70">
+      <c r="D10" s="47"/>
+      <c r="E10" s="47">
         <v>10</v>
       </c>
-      <c r="F10" s="71"/>
-      <c r="G10" s="69"/>
-      <c r="H10" s="72"/>
-      <c r="I10" s="72"/>
-      <c r="J10" s="70"/>
-      <c r="K10" s="70"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="49"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="47"/>
+      <c r="K10" s="47"/>
     </row>
     <row r="11" spans="1:11" ht="15.75">
-      <c r="A11" s="69" t="s">
+      <c r="A11" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="B11" s="70">
+      <c r="B11" s="47">
         <v>790</v>
       </c>
-      <c r="C11" s="70">
+      <c r="C11" s="47">
         <v>850</v>
       </c>
-      <c r="D11" s="70"/>
-      <c r="E11" s="70">
+      <c r="D11" s="47"/>
+      <c r="E11" s="47">
         <v>10</v>
       </c>
-      <c r="F11" s="71"/>
-      <c r="G11" s="69" t="s">
+      <c r="F11" s="48"/>
+      <c r="G11" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="H11" s="72">
+      <c r="H11" s="49">
         <v>1100</v>
       </c>
-      <c r="I11" s="72">
+      <c r="I11" s="49">
         <v>1190</v>
       </c>
-      <c r="J11" s="70"/>
-      <c r="K11" s="70">
+      <c r="J11" s="47"/>
+      <c r="K11" s="47">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15.75">
-      <c r="A12" s="69" t="s">
+      <c r="A12" s="46" t="s">
         <v>121</v>
       </c>
-      <c r="B12" s="70">
+      <c r="B12" s="47">
         <v>800</v>
       </c>
-      <c r="C12" s="70">
+      <c r="C12" s="47">
         <v>860</v>
       </c>
-      <c r="D12" s="70"/>
-      <c r="E12" s="70">
+      <c r="D12" s="47"/>
+      <c r="E12" s="47">
         <v>10</v>
       </c>
-      <c r="F12" s="71"/>
-      <c r="G12" s="69" t="s">
+      <c r="F12" s="48"/>
+      <c r="G12" s="46" t="s">
         <v>85</v>
       </c>
-      <c r="H12" s="72">
+      <c r="H12" s="49">
         <v>1330</v>
       </c>
-      <c r="I12" s="72">
+      <c r="I12" s="49">
         <v>1450</v>
       </c>
-      <c r="J12" s="70"/>
-      <c r="K12" s="70">
+      <c r="J12" s="47"/>
+      <c r="K12" s="47">
         <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15.75">
-      <c r="A13" s="69" t="s">
+      <c r="A13" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="70">
+      <c r="B13" s="47">
         <v>915</v>
       </c>
-      <c r="C13" s="70">
+      <c r="C13" s="47">
         <v>990</v>
       </c>
-      <c r="D13" s="70"/>
-      <c r="E13" s="70">
+      <c r="D13" s="47"/>
+      <c r="E13" s="47">
         <v>0</v>
       </c>
-      <c r="F13" s="71"/>
-      <c r="G13" s="69" t="s">
+      <c r="F13" s="48"/>
+      <c r="G13" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="72">
+      <c r="H13" s="49">
         <v>1200</v>
       </c>
-      <c r="I13" s="72">
+      <c r="I13" s="49">
         <v>1299</v>
       </c>
-      <c r="J13" s="70"/>
-      <c r="K13" s="70">
+      <c r="J13" s="47"/>
+      <c r="K13" s="47">
         <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="15.75">
-      <c r="A14" s="69" t="s">
+      <c r="A14" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="70">
+      <c r="B14" s="47">
         <v>890</v>
       </c>
-      <c r="C14" s="70">
+      <c r="C14" s="47">
         <v>970</v>
       </c>
-      <c r="D14" s="70"/>
-      <c r="E14" s="70">
+      <c r="D14" s="47"/>
+      <c r="E14" s="47">
         <v>10</v>
       </c>
-      <c r="F14" s="71"/>
-      <c r="G14" s="69" t="s">
+      <c r="F14" s="48"/>
+      <c r="G14" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="H14" s="72">
+      <c r="H14" s="49">
         <v>1100</v>
       </c>
-      <c r="I14" s="72">
+      <c r="I14" s="49">
         <v>1190</v>
       </c>
-      <c r="J14" s="70"/>
-      <c r="K14" s="70">
+      <c r="J14" s="47"/>
+      <c r="K14" s="47">
         <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15.75">
-      <c r="A15" s="69" t="s">
+      <c r="A15" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="70">
+      <c r="B15" s="47">
         <v>920</v>
       </c>
-      <c r="C15" s="70">
+      <c r="C15" s="47">
         <v>999</v>
       </c>
-      <c r="D15" s="70"/>
-      <c r="E15" s="70">
+      <c r="D15" s="47"/>
+      <c r="E15" s="47">
         <v>0</v>
       </c>
-      <c r="F15" s="71"/>
-      <c r="G15" s="69" t="s">
+      <c r="F15" s="48"/>
+      <c r="G15" s="46" t="s">
         <v>89</v>
       </c>
-      <c r="H15" s="72">
+      <c r="H15" s="49">
         <v>1190</v>
       </c>
-      <c r="I15" s="72">
+      <c r="I15" s="49">
         <v>1290</v>
       </c>
-      <c r="J15" s="70"/>
-      <c r="K15" s="70">
+      <c r="J15" s="47"/>
+      <c r="K15" s="47">
         <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="15.75">
-      <c r="A16" s="69" t="s">
+      <c r="A16" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="70">
+      <c r="B16" s="47">
         <v>880</v>
       </c>
-      <c r="C16" s="70">
+      <c r="C16" s="47">
         <v>950</v>
       </c>
-      <c r="D16" s="70"/>
-      <c r="E16" s="70">
+      <c r="D16" s="47"/>
+      <c r="E16" s="47">
         <v>20</v>
       </c>
-      <c r="F16" s="71"/>
-      <c r="G16" s="69" t="s">
+      <c r="F16" s="48"/>
+      <c r="G16" s="46" t="s">
         <v>100</v>
       </c>
-      <c r="H16" s="72">
+      <c r="H16" s="49">
         <v>12240</v>
       </c>
-      <c r="I16" s="72">
+      <c r="I16" s="49">
         <v>12990</v>
       </c>
-      <c r="J16" s="70"/>
-      <c r="K16" s="70">
+      <c r="J16" s="47"/>
+      <c r="K16" s="47">
         <v>350</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="15.75">
-      <c r="A17" s="69" t="s">
+      <c r="A17" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="B17" s="70">
+      <c r="B17" s="47">
         <v>845</v>
       </c>
-      <c r="C17" s="70">
+      <c r="C17" s="47">
         <v>910</v>
       </c>
-      <c r="D17" s="70"/>
-      <c r="E17" s="70">
+      <c r="D17" s="47"/>
+      <c r="E17" s="47">
         <v>10</v>
       </c>
-      <c r="F17" s="71"/>
-      <c r="G17" s="69" t="s">
+      <c r="F17" s="48"/>
+      <c r="G17" s="46" t="s">
         <v>101</v>
       </c>
-      <c r="H17" s="72">
+      <c r="H17" s="49">
         <v>12090</v>
       </c>
-      <c r="I17" s="72">
+      <c r="I17" s="49">
         <v>12990</v>
       </c>
-      <c r="J17" s="70"/>
-      <c r="K17" s="70">
+      <c r="J17" s="47"/>
+      <c r="K17" s="47">
         <v>200</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="15.75">
-      <c r="A18" s="69" t="s">
+      <c r="A18" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="70">
+      <c r="B18" s="47">
         <v>1000</v>
       </c>
-      <c r="C18" s="70">
+      <c r="C18" s="47">
         <v>1090</v>
       </c>
-      <c r="D18" s="70"/>
-      <c r="E18" s="70">
+      <c r="D18" s="47"/>
+      <c r="E18" s="47">
         <v>0</v>
       </c>
-      <c r="F18" s="71"/>
-      <c r="G18" s="69" t="s">
+      <c r="F18" s="48"/>
+      <c r="G18" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="H18" s="72">
+      <c r="H18" s="49">
         <v>12490</v>
       </c>
-      <c r="I18" s="72">
+      <c r="I18" s="49">
         <v>13490</v>
       </c>
-      <c r="J18" s="70"/>
-      <c r="K18" s="70">
+      <c r="J18" s="47"/>
+      <c r="K18" s="47">
         <v>300</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="15.75">
-      <c r="A19" s="69" t="s">
+      <c r="A19" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="B19" s="70">
+      <c r="B19" s="47">
         <v>995</v>
       </c>
-      <c r="C19" s="70">
+      <c r="C19" s="47">
         <v>1075</v>
       </c>
-      <c r="D19" s="70"/>
-      <c r="E19" s="70">
+      <c r="D19" s="47"/>
+      <c r="E19" s="47">
         <v>0</v>
       </c>
-      <c r="F19" s="71"/>
-      <c r="G19" s="69" t="s">
+      <c r="F19" s="48"/>
+      <c r="G19" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="H19" s="72">
+      <c r="H19" s="49">
         <v>5750</v>
       </c>
-      <c r="I19" s="72">
+      <c r="I19" s="49">
         <v>6190</v>
       </c>
-      <c r="J19" s="70"/>
-      <c r="K19" s="70">
+      <c r="J19" s="47"/>
+      <c r="K19" s="47">
         <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="15.75">
-      <c r="A20" s="69" t="s">
+      <c r="A20" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="B20" s="72">
+      <c r="B20" s="49">
         <v>880</v>
       </c>
-      <c r="C20" s="72">
+      <c r="C20" s="49">
         <v>950</v>
       </c>
-      <c r="D20" s="70"/>
-      <c r="E20" s="70">
+      <c r="D20" s="47"/>
+      <c r="E20" s="47">
         <v>10</v>
       </c>
-      <c r="F20" s="71"/>
-      <c r="G20" s="69" t="s">
+      <c r="F20" s="48"/>
+      <c r="G20" s="46" t="s">
         <v>102</v>
       </c>
-      <c r="H20" s="72">
+      <c r="H20" s="49">
         <v>17790</v>
       </c>
-      <c r="I20" s="72">
+      <c r="I20" s="49">
         <v>18990</v>
       </c>
-      <c r="J20" s="70"/>
-      <c r="K20" s="70">
+      <c r="J20" s="47"/>
+      <c r="K20" s="47">
         <v>300</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="15.75">
-      <c r="A21" s="69"/>
-      <c r="B21" s="72"/>
-      <c r="C21" s="72"/>
-      <c r="D21" s="70"/>
-      <c r="E21" s="70"/>
-      <c r="F21" s="71"/>
-      <c r="G21" s="69" t="s">
+      <c r="A21" s="46"/>
+      <c r="B21" s="49"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="46" t="s">
         <v>103</v>
       </c>
-      <c r="H21" s="72">
+      <c r="H21" s="49">
         <v>10330</v>
       </c>
-      <c r="I21" s="72">
+      <c r="I21" s="49">
         <v>10990</v>
       </c>
-      <c r="J21" s="70"/>
-      <c r="K21" s="70">
+      <c r="J21" s="47"/>
+      <c r="K21" s="47">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="15.75">
-      <c r="A22" s="69" t="s">
+      <c r="A22" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="70">
+      <c r="B22" s="47">
         <v>900</v>
       </c>
-      <c r="C22" s="70">
+      <c r="C22" s="47">
         <v>970</v>
       </c>
-      <c r="D22" s="70"/>
-      <c r="E22" s="70">
+      <c r="D22" s="47"/>
+      <c r="E22" s="47">
         <v>10</v>
       </c>
-      <c r="F22" s="71"/>
-      <c r="G22" s="69" t="s">
+      <c r="F22" s="48"/>
+      <c r="G22" s="46" t="s">
         <v>104</v>
       </c>
-      <c r="H22" s="72">
+      <c r="H22" s="49">
         <v>1730</v>
       </c>
-      <c r="I22" s="72">
+      <c r="I22" s="49">
         <v>1890</v>
       </c>
-      <c r="J22" s="70"/>
-      <c r="K22" s="70">
+      <c r="J22" s="47"/>
+      <c r="K22" s="47">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="15.75">
-      <c r="A23" s="69" t="s">
+      <c r="A23" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="B23" s="70">
+      <c r="B23" s="47">
         <v>1040</v>
       </c>
-      <c r="C23" s="70">
+      <c r="C23" s="47">
         <v>1120</v>
       </c>
-      <c r="D23" s="70"/>
-      <c r="E23" s="70">
+      <c r="D23" s="47"/>
+      <c r="E23" s="47">
         <v>20</v>
       </c>
-      <c r="F23" s="71"/>
-      <c r="G23" s="69" t="s">
+      <c r="F23" s="48"/>
+      <c r="G23" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="H23" s="72">
+      <c r="H23" s="49">
         <v>1250</v>
       </c>
-      <c r="I23" s="72">
+      <c r="I23" s="49">
         <v>1350</v>
       </c>
-      <c r="J23" s="70"/>
-      <c r="K23" s="70">
+      <c r="J23" s="47"/>
+      <c r="K23" s="47">
         <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="15.75">
-      <c r="A24" s="69" t="s">
+      <c r="A24" s="46" t="s">
         <v>120</v>
       </c>
-      <c r="B24" s="72">
+      <c r="B24" s="49">
         <v>1040</v>
       </c>
-      <c r="C24" s="72">
+      <c r="C24" s="49">
         <v>1120</v>
       </c>
-      <c r="D24" s="70"/>
-      <c r="E24" s="70">
+      <c r="D24" s="47"/>
+      <c r="E24" s="47">
         <v>20</v>
       </c>
-      <c r="F24" s="71"/>
-      <c r="G24" s="69" t="s">
+      <c r="F24" s="48"/>
+      <c r="G24" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="H24" s="72">
+      <c r="H24" s="49">
         <v>1370</v>
       </c>
-      <c r="I24" s="72">
+      <c r="I24" s="49">
         <v>1490</v>
       </c>
-      <c r="J24" s="70"/>
-      <c r="K24" s="70">
+      <c r="J24" s="47"/>
+      <c r="K24" s="47">
         <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="15.75">
-      <c r="A25" s="69" t="s">
+      <c r="A25" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="B25" s="72">
+      <c r="B25" s="49">
         <v>930</v>
       </c>
-      <c r="C25" s="72">
+      <c r="C25" s="49">
         <v>999</v>
       </c>
-      <c r="D25" s="70"/>
-      <c r="E25" s="70">
+      <c r="D25" s="47"/>
+      <c r="E25" s="47">
         <v>10</v>
       </c>
-      <c r="F25" s="71"/>
-      <c r="G25" s="69" t="s">
+      <c r="F25" s="48"/>
+      <c r="G25" s="46" t="s">
         <v>105</v>
       </c>
-      <c r="H25" s="72">
+      <c r="H25" s="49">
         <v>1890</v>
       </c>
-      <c r="I25" s="72">
+      <c r="I25" s="49">
         <v>2090</v>
       </c>
-      <c r="J25" s="70"/>
-      <c r="K25" s="70">
+      <c r="J25" s="47"/>
+      <c r="K25" s="47">
         <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="15.75">
-      <c r="A26" s="69" t="s">
+      <c r="A26" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="72">
+      <c r="B26" s="49">
         <v>1290</v>
       </c>
-      <c r="C26" s="72">
+      <c r="C26" s="49">
         <v>1390</v>
       </c>
-      <c r="D26" s="70"/>
-      <c r="E26" s="70">
+      <c r="D26" s="47"/>
+      <c r="E26" s="47">
         <v>10</v>
       </c>
-      <c r="F26" s="71"/>
-      <c r="G26" s="69" t="s">
+      <c r="F26" s="48"/>
+      <c r="G26" s="46" t="s">
         <v>106</v>
       </c>
-      <c r="H26" s="72">
+      <c r="H26" s="49">
         <v>1480</v>
       </c>
-      <c r="I26" s="72">
+      <c r="I26" s="49">
         <v>1590</v>
       </c>
-      <c r="J26" s="70"/>
-      <c r="K26" s="70">
+      <c r="J26" s="47"/>
+      <c r="K26" s="47">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="15.75">
-      <c r="A27" s="69" t="s">
+      <c r="A27" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="B27" s="72">
+      <c r="B27" s="49">
         <v>1190</v>
       </c>
-      <c r="C27" s="72">
+      <c r="C27" s="49">
         <v>1290</v>
       </c>
-      <c r="D27" s="70"/>
-      <c r="E27" s="70">
+      <c r="D27" s="47"/>
+      <c r="E27" s="47">
         <v>10</v>
       </c>
-      <c r="F27" s="71"/>
-      <c r="G27" s="69" t="s">
+      <c r="F27" s="48"/>
+      <c r="G27" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="H27" s="72">
+      <c r="H27" s="49">
         <v>4280</v>
       </c>
-      <c r="I27" s="72">
+      <c r="I27" s="49">
         <v>4590</v>
       </c>
-      <c r="J27" s="70">
+      <c r="J27" s="47">
         <v>300</v>
       </c>
-      <c r="K27" s="70">
+      <c r="K27" s="47">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="15.75">
-      <c r="A28" s="69" t="s">
+      <c r="A28" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="B28" s="72">
+      <c r="B28" s="49">
         <v>1270</v>
       </c>
-      <c r="C28" s="72">
+      <c r="C28" s="49">
         <v>1370</v>
       </c>
-      <c r="D28" s="70"/>
-      <c r="E28" s="70">
+      <c r="D28" s="47"/>
+      <c r="E28" s="47">
         <v>10</v>
       </c>
-      <c r="F28" s="71"/>
-      <c r="G28" s="69" t="s">
+      <c r="F28" s="48"/>
+      <c r="G28" s="46" t="s">
         <v>107</v>
       </c>
-      <c r="H28" s="72">
+      <c r="H28" s="49">
         <v>5650</v>
       </c>
-      <c r="I28" s="72">
+      <c r="I28" s="49">
         <v>6150</v>
       </c>
-      <c r="J28" s="70"/>
-      <c r="K28" s="70">
+      <c r="J28" s="47"/>
+      <c r="K28" s="47">
         <v>75</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="15.75">
-      <c r="A29" s="69" t="s">
+      <c r="A29" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="B29" s="72">
+      <c r="B29" s="49">
         <v>1170</v>
       </c>
-      <c r="C29" s="72">
+      <c r="C29" s="49">
         <v>1270</v>
       </c>
-      <c r="D29" s="70"/>
-      <c r="E29" s="70">
+      <c r="D29" s="47"/>
+      <c r="E29" s="47">
         <v>10</v>
       </c>
-      <c r="F29" s="71"/>
-      <c r="G29" s="69" t="s">
+      <c r="F29" s="48"/>
+      <c r="G29" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="H29" s="72">
+      <c r="H29" s="49">
         <v>5020</v>
       </c>
-      <c r="I29" s="72">
+      <c r="I29" s="49">
         <v>5390</v>
       </c>
-      <c r="J29" s="70"/>
-      <c r="K29" s="70">
+      <c r="J29" s="47"/>
+      <c r="K29" s="47">
         <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="15.75">
-      <c r="A30" s="69" t="s">
+      <c r="A30" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="B30" s="72">
+      <c r="B30" s="49">
         <v>1190</v>
       </c>
-      <c r="C30" s="72">
+      <c r="C30" s="49">
         <v>1290</v>
       </c>
-      <c r="D30" s="70"/>
-      <c r="E30" s="70">
+      <c r="D30" s="47"/>
+      <c r="E30" s="47">
         <v>10</v>
       </c>
-      <c r="F30" s="71"/>
-      <c r="G30" s="69" t="s">
+      <c r="F30" s="48"/>
+      <c r="G30" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="H30" s="72">
+      <c r="H30" s="49">
         <v>5280</v>
       </c>
-      <c r="I30" s="72">
+      <c r="I30" s="49">
         <v>5690</v>
       </c>
-      <c r="J30" s="70"/>
-      <c r="K30" s="70">
+      <c r="J30" s="47"/>
+      <c r="K30" s="47">
         <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="15.75">
-      <c r="A31" s="69" t="s">
+      <c r="A31" s="46" t="s">
         <v>108</v>
       </c>
-      <c r="B31" s="72">
+      <c r="B31" s="49">
         <v>2780</v>
       </c>
-      <c r="C31" s="72">
+      <c r="C31" s="49">
         <v>2990</v>
       </c>
-      <c r="D31" s="70"/>
-      <c r="E31" s="70">
+      <c r="D31" s="47"/>
+      <c r="E31" s="47">
         <v>30</v>
       </c>
-      <c r="F31" s="71"/>
-      <c r="G31" s="69" t="s">
+      <c r="F31" s="48"/>
+      <c r="G31" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="H31" s="72">
+      <c r="H31" s="49">
         <v>4550</v>
       </c>
-      <c r="I31" s="72">
+      <c r="I31" s="49">
         <v>4890</v>
       </c>
-      <c r="J31" s="70"/>
-      <c r="K31" s="70">
+      <c r="J31" s="47"/>
+      <c r="K31" s="47">
         <v>80</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="15.75">
-      <c r="A32" s="69" t="s">
+      <c r="A32" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="B32" s="72">
+      <c r="B32" s="49">
         <v>2770</v>
       </c>
-      <c r="C32" s="72">
+      <c r="C32" s="49">
         <v>2990</v>
       </c>
-      <c r="D32" s="70"/>
-      <c r="E32" s="70">
+      <c r="D32" s="47"/>
+      <c r="E32" s="47">
         <v>30</v>
       </c>
-      <c r="F32" s="71"/>
-      <c r="G32" s="69" t="s">
+      <c r="F32" s="48"/>
+      <c r="G32" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="H32" s="72">
+      <c r="H32" s="49">
         <v>5100</v>
       </c>
-      <c r="I32" s="72">
+      <c r="I32" s="49">
         <v>5490</v>
       </c>
-      <c r="J32" s="70">
+      <c r="J32" s="47">
         <v>70</v>
       </c>
-      <c r="K32" s="70">
+      <c r="K32" s="47">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="15.75">
-      <c r="A33" s="69" t="s">
+      <c r="A33" s="46" t="s">
         <v>109</v>
       </c>
-      <c r="B33" s="72">
+      <c r="B33" s="49">
         <v>8290</v>
       </c>
-      <c r="C33" s="72">
+      <c r="C33" s="49">
         <v>8890</v>
       </c>
-      <c r="D33" s="70"/>
-      <c r="E33" s="70"/>
-      <c r="F33" s="71"/>
-      <c r="G33" s="69" t="s">
+      <c r="D33" s="47"/>
+      <c r="E33" s="47"/>
+      <c r="F33" s="48"/>
+      <c r="G33" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="H33" s="72">
+      <c r="H33" s="49">
         <v>5560</v>
       </c>
-      <c r="I33" s="72">
+      <c r="I33" s="49">
         <v>5990</v>
       </c>
-      <c r="J33" s="70">
+      <c r="J33" s="47">
         <v>200</v>
       </c>
-      <c r="K33" s="70">
+      <c r="K33" s="47">
         <v>100</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="15.75">
-      <c r="A34" s="69" t="s">
+      <c r="A34" s="46" t="s">
         <v>118</v>
       </c>
-      <c r="B34" s="72">
+      <c r="B34" s="49">
         <v>8340</v>
       </c>
-      <c r="C34" s="72">
+      <c r="C34" s="49">
         <v>8990</v>
       </c>
-      <c r="D34" s="70"/>
-      <c r="E34" s="70">
+      <c r="D34" s="47"/>
+      <c r="E34" s="47">
         <v>100</v>
       </c>
-      <c r="F34" s="71"/>
-      <c r="G34" s="69"/>
-      <c r="H34" s="72"/>
-      <c r="I34" s="72"/>
-      <c r="J34" s="70"/>
-      <c r="K34" s="70"/>
+      <c r="F34" s="48"/>
+      <c r="G34" s="46"/>
+      <c r="H34" s="49"/>
+      <c r="I34" s="49"/>
+      <c r="J34" s="47"/>
+      <c r="K34" s="47"/>
     </row>
     <row r="35" spans="1:11" ht="15.75">
-      <c r="A35" s="69" t="s">
+      <c r="A35" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="B35" s="72">
+      <c r="B35" s="49">
         <v>9190</v>
       </c>
-      <c r="C35" s="72">
+      <c r="C35" s="49">
         <v>9990</v>
       </c>
-      <c r="D35" s="70"/>
-      <c r="E35" s="70">
+      <c r="D35" s="47"/>
+      <c r="E35" s="47">
         <v>170</v>
       </c>
-      <c r="F35" s="71"/>
-      <c r="G35" s="69" t="s">
+      <c r="F35" s="48"/>
+      <c r="G35" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="H35" s="72">
+      <c r="H35" s="49">
         <v>5390</v>
       </c>
-      <c r="I35" s="72">
+      <c r="I35" s="49">
         <v>5790</v>
       </c>
-      <c r="J35" s="70">
+      <c r="J35" s="47">
         <v>200</v>
       </c>
-      <c r="K35" s="70">
+      <c r="K35" s="47">
         <v>120</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="15.75">
-      <c r="A36" s="69" t="s">
+      <c r="A36" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="B36" s="72">
+      <c r="B36" s="49">
         <v>6540</v>
       </c>
-      <c r="C36" s="72">
+      <c r="C36" s="49">
         <v>6990</v>
       </c>
-      <c r="D36" s="70"/>
-      <c r="E36" s="70"/>
-      <c r="F36" s="71"/>
-      <c r="G36" s="69" t="s">
+      <c r="D36" s="47"/>
+      <c r="E36" s="47"/>
+      <c r="F36" s="48"/>
+      <c r="G36" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="H36" s="72">
+      <c r="H36" s="49">
         <v>3560</v>
       </c>
-      <c r="I36" s="72">
+      <c r="I36" s="49">
         <v>3840</v>
       </c>
-      <c r="J36" s="70">
+      <c r="J36" s="47">
         <v>400</v>
       </c>
-      <c r="K36" s="70">
+      <c r="K36" s="47">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="15.75">
-      <c r="A37" s="69" t="s">
+      <c r="A37" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="B37" s="72">
+      <c r="B37" s="49">
         <v>5290</v>
       </c>
-      <c r="C37" s="72">
+      <c r="C37" s="49">
         <v>5690</v>
       </c>
-      <c r="D37" s="70"/>
-      <c r="E37" s="70">
+      <c r="D37" s="47"/>
+      <c r="E37" s="47">
         <v>80</v>
       </c>
-      <c r="F37" s="71"/>
-      <c r="G37" s="74" t="s">
+      <c r="F37" s="48"/>
+      <c r="G37" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="H37" s="72">
+      <c r="H37" s="49">
         <v>3340</v>
       </c>
-      <c r="I37" s="72">
+      <c r="I37" s="49">
         <v>3590</v>
       </c>
-      <c r="J37" s="70">
+      <c r="J37" s="47">
         <v>320</v>
       </c>
-      <c r="K37" s="70">
+      <c r="K37" s="47">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="15.75">
-      <c r="A38" s="69" t="s">
+      <c r="A38" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="B38" s="72">
+      <c r="B38" s="49">
         <v>5470</v>
       </c>
-      <c r="C38" s="72">
+      <c r="C38" s="49">
         <v>5890</v>
       </c>
-      <c r="D38" s="70"/>
-      <c r="E38" s="70">
+      <c r="D38" s="47"/>
+      <c r="E38" s="47">
         <v>70</v>
       </c>
-      <c r="F38" s="71"/>
-      <c r="G38" s="69" t="s">
+      <c r="F38" s="48"/>
+      <c r="G38" s="46" t="s">
         <v>110</v>
       </c>
-      <c r="H38" s="72">
+      <c r="H38" s="49">
         <v>4500</v>
       </c>
-      <c r="I38" s="72">
+      <c r="I38" s="49">
         <v>4790</v>
       </c>
-      <c r="J38" s="70"/>
-      <c r="K38" s="70">
+      <c r="J38" s="47"/>
+      <c r="K38" s="47">
         <v>100</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="15.75">
-      <c r="A39" s="69" t="s">
+      <c r="A39" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="B39" s="72">
+      <c r="B39" s="49">
         <v>5750</v>
       </c>
-      <c r="C39" s="72">
+      <c r="C39" s="49">
         <v>6190</v>
       </c>
-      <c r="D39" s="70"/>
-      <c r="E39" s="70">
+      <c r="D39" s="47"/>
+      <c r="E39" s="47">
         <v>80</v>
       </c>
-      <c r="F39" s="71"/>
-      <c r="G39" s="69" t="s">
+      <c r="F39" s="48"/>
+      <c r="G39" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="H39" s="72">
+      <c r="H39" s="49">
         <v>5390</v>
       </c>
-      <c r="I39" s="72">
+      <c r="I39" s="49">
         <v>5790</v>
       </c>
-      <c r="J39" s="70"/>
-      <c r="K39" s="70">
+      <c r="J39" s="47"/>
+      <c r="K39" s="47">
         <v>75</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="15.75">
-      <c r="A40" s="69" t="s">
+      <c r="A40" s="46" t="s">
         <v>123</v>
       </c>
-      <c r="B40" s="72">
+      <c r="B40" s="49">
         <v>5550</v>
       </c>
-      <c r="C40" s="72">
+      <c r="C40" s="49">
         <v>5990</v>
       </c>
-      <c r="D40" s="70"/>
-      <c r="E40" s="70">
+      <c r="D40" s="47"/>
+      <c r="E40" s="47">
         <v>60</v>
       </c>
-      <c r="F40" s="71"/>
-      <c r="G40" s="75" t="s">
+      <c r="F40" s="48"/>
+      <c r="G40" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="H40" s="72">
+      <c r="H40" s="49">
         <v>4970</v>
       </c>
-      <c r="I40" s="72">
+      <c r="I40" s="49">
         <v>5290</v>
       </c>
-      <c r="J40" s="70"/>
-      <c r="K40" s="70">
+      <c r="J40" s="47"/>
+      <c r="K40" s="47">
         <v>130</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="15.75">
-      <c r="A41" s="69" t="s">
+      <c r="A41" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="B41" s="72">
+      <c r="B41" s="49">
         <v>5940</v>
       </c>
-      <c r="C41" s="72">
+      <c r="C41" s="49">
         <v>6390</v>
       </c>
-      <c r="D41" s="70"/>
-      <c r="E41" s="70">
+      <c r="D41" s="47"/>
+      <c r="E41" s="47">
         <v>90</v>
       </c>
-      <c r="F41" s="71"/>
-      <c r="G41" s="69" t="s">
+      <c r="F41" s="48"/>
+      <c r="G41" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="H41" s="72">
+      <c r="H41" s="49">
         <v>4015</v>
       </c>
-      <c r="I41" s="72">
+      <c r="I41" s="49">
         <v>4390</v>
       </c>
-      <c r="J41" s="70"/>
-      <c r="K41" s="70">
+      <c r="J41" s="47"/>
+      <c r="K41" s="47">
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="15.75">
-      <c r="A42" s="69"/>
-      <c r="B42" s="72"/>
-      <c r="C42" s="72"/>
-      <c r="D42" s="70"/>
-      <c r="E42" s="70"/>
-      <c r="F42" s="71"/>
-      <c r="G42" s="69" t="s">
+      <c r="A42" s="46"/>
+      <c r="B42" s="49"/>
+      <c r="C42" s="49"/>
+      <c r="D42" s="47"/>
+      <c r="E42" s="47"/>
+      <c r="F42" s="48"/>
+      <c r="G42" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="H42" s="72">
+      <c r="H42" s="49">
         <v>3710</v>
       </c>
-      <c r="I42" s="72">
+      <c r="I42" s="49">
         <v>3990</v>
       </c>
-      <c r="J42" s="70">
+      <c r="J42" s="47">
         <v>200</v>
       </c>
-      <c r="K42" s="70">
+      <c r="K42" s="47">
         <v>40</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="15.75">
-      <c r="A43" s="69" t="s">
+      <c r="A43" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="B43" s="72">
+      <c r="B43" s="49">
         <v>6530</v>
       </c>
-      <c r="C43" s="72">
+      <c r="C43" s="49">
         <v>6990</v>
       </c>
-      <c r="D43" s="70"/>
-      <c r="E43" s="70">
+      <c r="D43" s="47"/>
+      <c r="E43" s="47">
         <v>0</v>
       </c>
-      <c r="F43" s="71"/>
-      <c r="G43" s="69" t="s">
+      <c r="F43" s="48"/>
+      <c r="G43" s="46" t="s">
         <v>111</v>
       </c>
-      <c r="H43" s="72">
+      <c r="H43" s="49">
         <v>3620</v>
       </c>
-      <c r="I43" s="72">
+      <c r="I43" s="49">
         <v>3890</v>
       </c>
-      <c r="J43" s="70">
+      <c r="J43" s="47">
         <v>320</v>
       </c>
-      <c r="K43" s="70">
+      <c r="K43" s="47">
         <v>50</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="15.75">
-      <c r="A44" s="69" t="s">
+      <c r="A44" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="B44" s="72">
+      <c r="B44" s="49">
         <v>6890</v>
       </c>
-      <c r="C44" s="72">
+      <c r="C44" s="49">
         <v>7490</v>
       </c>
-      <c r="D44" s="70"/>
-      <c r="E44" s="70">
+      <c r="D44" s="47"/>
+      <c r="E44" s="47">
         <v>0</v>
       </c>
-      <c r="F44" s="71"/>
-      <c r="G44" s="69" t="s">
+      <c r="F44" s="48"/>
+      <c r="G44" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="H44" s="72">
+      <c r="H44" s="49">
         <v>4080</v>
       </c>
-      <c r="I44" s="72">
+      <c r="I44" s="49">
         <v>4390</v>
       </c>
-      <c r="J44" s="70">
+      <c r="J44" s="47">
         <v>200</v>
       </c>
-      <c r="K44" s="70">
+      <c r="K44" s="47">
         <v>70</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="15.75">
-      <c r="A45" s="69" t="s">
+      <c r="A45" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="B45" s="72">
+      <c r="B45" s="49">
         <v>1220</v>
       </c>
-      <c r="C45" s="72">
+      <c r="C45" s="49">
         <v>1320</v>
       </c>
-      <c r="D45" s="70"/>
-      <c r="E45" s="70">
+      <c r="D45" s="47"/>
+      <c r="E45" s="47">
         <v>20</v>
       </c>
-      <c r="F45" s="71"/>
-      <c r="G45" s="69" t="s">
+      <c r="F45" s="48"/>
+      <c r="G45" s="46" t="s">
         <v>113</v>
       </c>
-      <c r="H45" s="72">
+      <c r="H45" s="49">
         <v>4220</v>
       </c>
-      <c r="I45" s="72">
+      <c r="I45" s="49">
         <v>4540</v>
       </c>
-      <c r="J45" s="70"/>
-      <c r="K45" s="70">
+      <c r="J45" s="47"/>
+      <c r="K45" s="47">
         <v>50</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="15.75">
-      <c r="A46" s="69" t="s">
+      <c r="A46" s="46" t="s">
         <v>112</v>
       </c>
-      <c r="B46" s="72">
+      <c r="B46" s="49">
         <v>1460</v>
       </c>
-      <c r="C46" s="72">
+      <c r="C46" s="49">
         <v>1590</v>
       </c>
-      <c r="D46" s="70"/>
-      <c r="E46" s="70">
+      <c r="D46" s="47"/>
+      <c r="E46" s="47">
         <v>20</v>
       </c>
-      <c r="F46" s="71"/>
-      <c r="G46" s="69" t="s">
+      <c r="F46" s="48"/>
+      <c r="G46" s="46" t="s">
         <v>91</v>
       </c>
-      <c r="H46" s="72">
+      <c r="H46" s="49">
         <v>3710</v>
       </c>
-      <c r="I46" s="72">
+      <c r="I46" s="49">
         <v>3990</v>
       </c>
-      <c r="J46" s="70"/>
-      <c r="K46" s="70">
+      <c r="J46" s="47"/>
+      <c r="K46" s="47">
         <v>50</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="15.75">
-      <c r="A47" s="69" t="s">
+      <c r="A47" s="46" t="s">
         <v>90</v>
       </c>
-      <c r="B47" s="72">
+      <c r="B47" s="49">
         <v>1070</v>
       </c>
-      <c r="C47" s="72">
+      <c r="C47" s="49">
         <v>1160</v>
       </c>
-      <c r="D47" s="70"/>
-      <c r="E47" s="70">
+      <c r="D47" s="47"/>
+      <c r="E47" s="47">
         <v>0</v>
       </c>
-      <c r="F47" s="71"/>
-      <c r="G47" s="69" t="s">
+      <c r="F47" s="48"/>
+      <c r="G47" s="46" t="s">
         <v>114</v>
       </c>
-      <c r="H47" s="72">
+      <c r="H47" s="49">
         <v>12590</v>
       </c>
-      <c r="I47" s="72">
+      <c r="I47" s="49">
         <v>13490</v>
       </c>
-      <c r="J47" s="70"/>
-      <c r="K47" s="70">
+      <c r="J47" s="47"/>
+      <c r="K47" s="47">
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="15.75">
-      <c r="A48" s="69"/>
-      <c r="B48" s="72"/>
-      <c r="C48" s="72"/>
-      <c r="D48" s="70"/>
-      <c r="E48" s="70"/>
-      <c r="F48" s="71"/>
-      <c r="G48" s="69" t="s">
+      <c r="A48" s="46"/>
+      <c r="B48" s="49"/>
+      <c r="C48" s="49"/>
+      <c r="D48" s="47"/>
+      <c r="E48" s="47"/>
+      <c r="F48" s="48"/>
+      <c r="G48" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="H48" s="72">
+      <c r="H48" s="49">
         <v>7890</v>
       </c>
-      <c r="I48" s="72">
+      <c r="I48" s="49">
         <v>8490</v>
       </c>
-      <c r="J48" s="70"/>
-      <c r="K48" s="70">
+      <c r="J48" s="47"/>
+      <c r="K48" s="47">
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="15.75">
-      <c r="A49" s="69" t="s">
+      <c r="A49" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="B49" s="72">
+      <c r="B49" s="49">
         <v>1200</v>
       </c>
-      <c r="C49" s="72">
+      <c r="C49" s="49">
         <v>1290</v>
       </c>
-      <c r="D49" s="70"/>
-      <c r="E49" s="70">
+      <c r="D49" s="47"/>
+      <c r="E49" s="47">
         <v>0</v>
       </c>
-      <c r="F49" s="71"/>
-      <c r="G49" s="69" t="s">
+      <c r="F49" s="48"/>
+      <c r="G49" s="46" t="s">
         <v>124</v>
       </c>
-      <c r="H49" s="72">
+      <c r="H49" s="49">
         <v>8310</v>
       </c>
-      <c r="I49" s="72">
+      <c r="I49" s="49">
         <v>8990</v>
       </c>
-      <c r="J49" s="70"/>
-      <c r="K49" s="70"/>
+      <c r="J49" s="47"/>
+      <c r="K49" s="47"/>
     </row>
     <row r="50" spans="1:11" ht="15.75">
-      <c r="A50" s="69" t="s">
+      <c r="A50" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="B50" s="72">
+      <c r="B50" s="49">
         <v>1080</v>
       </c>
-      <c r="C50" s="72">
+      <c r="C50" s="49">
         <v>1160</v>
       </c>
-      <c r="D50" s="70"/>
-      <c r="E50" s="70">
+      <c r="D50" s="47"/>
+      <c r="E50" s="47">
         <v>10</v>
       </c>
-      <c r="F50" s="71"/>
-      <c r="G50" s="69"/>
-      <c r="H50" s="72"/>
-      <c r="I50" s="72"/>
-      <c r="J50" s="70"/>
-      <c r="K50" s="70"/>
+      <c r="F50" s="48"/>
+      <c r="G50" s="46"/>
+      <c r="H50" s="49"/>
+      <c r="I50" s="49"/>
+      <c r="J50" s="47"/>
+      <c r="K50" s="47"/>
     </row>
     <row r="51" spans="1:11" ht="15.75">
-      <c r="A51" s="69" t="s">
+      <c r="A51" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="B51" s="72">
+      <c r="B51" s="49">
         <v>1100</v>
       </c>
-      <c r="C51" s="72">
+      <c r="C51" s="49">
         <v>1199</v>
       </c>
-      <c r="D51" s="70"/>
-      <c r="E51" s="70">
+      <c r="D51" s="47"/>
+      <c r="E51" s="47">
         <v>20</v>
       </c>
-      <c r="F51" s="71"/>
-      <c r="G51" s="69"/>
-      <c r="H51" s="72"/>
-      <c r="I51" s="72"/>
-      <c r="J51" s="70"/>
-      <c r="K51" s="70"/>
+      <c r="F51" s="48"/>
+      <c r="G51" s="46"/>
+      <c r="H51" s="49"/>
+      <c r="I51" s="49"/>
+      <c r="J51" s="47"/>
+      <c r="K51" s="47"/>
     </row>
     <row r="52" spans="1:11">
-      <c r="A52" s="76" t="s">
+      <c r="A52" s="80" t="s">
         <v>92</v>
       </c>
-      <c r="B52" s="42"/>
-      <c r="C52" s="42"/>
-      <c r="D52" s="42" t="s">
+      <c r="B52" s="53"/>
+      <c r="C52" s="53"/>
+      <c r="D52" s="53" t="s">
         <v>115</v>
       </c>
-      <c r="E52" s="42"/>
-      <c r="F52" s="42"/>
-      <c r="G52" s="42"/>
-      <c r="H52" s="42"/>
-      <c r="I52" s="77" t="s">
+      <c r="E52" s="53"/>
+      <c r="F52" s="53"/>
+      <c r="G52" s="53"/>
+      <c r="H52" s="53"/>
+      <c r="I52" s="76" t="s">
         <v>116</v>
       </c>
-      <c r="J52" s="77"/>
-      <c r="K52" s="78"/>
+      <c r="J52" s="76"/>
+      <c r="K52" s="77"/>
     </row>
     <row r="53" spans="1:11">
-      <c r="A53" s="79"/>
-      <c r="B53" s="43"/>
-      <c r="C53" s="43"/>
-      <c r="D53" s="43"/>
-      <c r="E53" s="43"/>
-      <c r="F53" s="43"/>
-      <c r="G53" s="43"/>
-      <c r="H53" s="43"/>
-      <c r="I53" s="80"/>
-      <c r="J53" s="80"/>
-      <c r="K53" s="81"/>
+      <c r="A53" s="81"/>
+      <c r="B53" s="54"/>
+      <c r="C53" s="54"/>
+      <c r="D53" s="54"/>
+      <c r="E53" s="54"/>
+      <c r="F53" s="54"/>
+      <c r="G53" s="54"/>
+      <c r="H53" s="54"/>
+      <c r="I53" s="78"/>
+      <c r="J53" s="78"/>
+      <c r="K53" s="79"/>
     </row>
   </sheetData>
   <mergeCells count="7">
